--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.2169480385347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.12018204701069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146108</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363781</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>38.96319309123408</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.12018204701068</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617555</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.9631930912341</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731403</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.0141422503843</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575429</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,7 +426,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -431,7 +434,7 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -439,7 +442,7 @@
         <v>26.21694803853472</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -447,7 +450,7 @@
         <v>26.12018204701068</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -455,7 +458,7 @@
         <v>26.78544435617555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -463,7 +466,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -471,7 +474,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -479,7 +482,7 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -487,7 +490,7 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -495,7 +498,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -503,7 +506,7 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -511,7 +514,7 @@
         <v>39.19167637503955</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -519,7 +522,7 @@
         <v>38.9631930912341</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,197 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27.728531452274</v>
+      </c>
+      <c r="C2">
+        <v>21.08002559901384</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>30.57040484667226</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2">
+        <v>2.016398206562165</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>10.51287631279886</v>
+      </c>
+      <c r="O2">
+        <v>26.06299568452545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>25.68577358366419</v>
+      </c>
+      <c r="C3">
+        <v>19.54277823354317</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>28.21163682212407</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.030206820311621</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>10.85998210412201</v>
+      </c>
+      <c r="O3">
+        <v>24.5866025977285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>24.37576356337109</v>
+      </c>
+      <c r="C4">
+        <v>18.55865451320725</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>26.71266596647874</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.038765883196044</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>11.07445961282617</v>
+      </c>
+      <c r="O4">
+        <v>23.69010880184218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>23.82743667664683</v>
+      </c>
+      <c r="C5">
+        <v>18.14710539840635</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>26.08822485444645</v>
+      </c>
       <c r="F5">
         <v>26.21694803853472</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5">
+        <v>2.04228058069402</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>11.16230992424806</v>
+      </c>
+      <c r="O5">
+        <v>23.32727961963576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>23.73549967972821</v>
+      </c>
+      <c r="C6">
+        <v>18.07812260562627</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>25.98369257971954</v>
+      </c>
       <c r="F6">
         <v>26.12018204701068</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6">
+        <v>2.042865989518992</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>11.17692753757775</v>
+      </c>
+      <c r="O6">
+        <v>23.26718486122397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>24.36842787635424</v>
+      </c>
+      <c r="C7">
+        <v>18.55314725861265</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>26.70430064775521</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.78544435617551</v>
+      </c>
+      <c r="G7">
+        <v>2.038813166991829</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11.07564243732089</v>
+      </c>
+      <c r="O7">
+        <v>23.68520537593535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>27.03545980713987</v>
+      </c>
+      <c r="C8">
+        <v>20.55808610030166</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>29.76706925061738</v>
+      </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8">
+        <v>2.021146925839023</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>10.63234573880235</v>
+      </c>
+      <c r="O8">
+        <v>25.55180253709725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>31.84761652755302</v>
+      </c>
+      <c r="C9">
+        <v>24.19094839632728</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>35.41665882883757</v>
+      </c>
       <c r="F9">
-        <v>34.4587799414611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.45877994148619</v>
+      </c>
+      <c r="G9">
+        <v>1.986793760525226</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>9.768392724577085</v>
+      </c>
+      <c r="O9">
+        <v>29.47851561492198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>35.16911074665741</v>
+      </c>
+      <c r="C10">
+        <v>26.71238785484443</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>39.42835966633008</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.72874519847369</v>
+      </c>
+      <c r="G10">
+        <v>1.961139165964108</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>9.128679430146459</v>
+      </c>
+      <c r="O10">
+        <v>32.76629426405129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>36.64535533584656</v>
+      </c>
+      <c r="C11">
+        <v>27.83741525058787</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>41.24654522077667</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>39.1480572223286</v>
+      </c>
+      <c r="G11">
+        <v>1.949204504582808</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>8.834571960672818</v>
+      </c>
+      <c r="O11">
+        <v>34.26798702532356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>37.20063350751502</v>
+      </c>
+      <c r="C12">
+        <v>28.26135870827716</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>41.93667388001995</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>1.944628198706841</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>8.722578368860281</v>
+      </c>
+      <c r="O12">
+        <v>34.83914663298208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>37.08118772306238</v>
+      </c>
+      <c r="C13">
+        <v>28.17012723008853</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>41.78792120510361</v>
+      </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.56266403258223</v>
+      </c>
+      <c r="G13">
+        <v>1.945616672418681</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8.746728675883432</v>
+      </c>
+      <c r="O13">
+        <v>34.71599480432468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>36.69110519177148</v>
+      </c>
+      <c r="C14">
+        <v>27.87232785321653</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>41.30327263811694</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.19167637503956</v>
+      </c>
+      <c r="G14">
+        <v>1.94882927516682</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>8.825371658693006</v>
+      </c>
+      <c r="O14">
+        <v>34.31491549654869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>36.45172305303858</v>
+      </c>
+      <c r="C15">
+        <v>27.68968295047614</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>41.00671146800623</v>
+      </c>
       <c r="F15">
-        <v>38.9631930912341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.96319309154518</v>
+      </c>
+      <c r="G15">
+        <v>1.950789033562785</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>8.873456520888807</v>
+      </c>
+      <c r="O15">
+        <v>34.06962503009566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>35.07203626017763</v>
+      </c>
+      <c r="C16">
+        <v>26.63850884583143</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>39.30960739441614</v>
+      </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1.961912293843217</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>9.147822788433734</v>
+      </c>
+      <c r="O16">
+        <v>32.66840599312716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>34.21755167392792</v>
+      </c>
+      <c r="C17">
+        <v>25.98870754711507</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>38.26839989306022</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268389</v>
+      </c>
+      <c r="G17">
+        <v>1.968656301913321</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>9.315220900903052</v>
+      </c>
+      <c r="O17">
+        <v>31.81137618019045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>33.72271746967345</v>
+      </c>
+      <c r="C18">
+        <v>25.61281172345444</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>37.66870030780215</v>
+      </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1.972511765198455</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>9.411223332748751</v>
+      </c>
+      <c r="O18">
+        <v>31.31888495652359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>33.55456500435221</v>
+      </c>
+      <c r="C19">
+        <v>25.48514216477513</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>37.46544231173057</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494157628</v>
+      </c>
+      <c r="G19">
+        <v>1.97381362459251</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>9.443685177292295</v>
+      </c>
+      <c r="O19">
+        <v>31.15217076954809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>34.30885235069633</v>
+      </c>
+      <c r="C20">
+        <v>26.05809522393224</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>38.3793069000691</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731402</v>
+      </c>
+      <c r="G20">
+        <v>1.967940946592049</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>9.297431375785127</v>
+      </c>
+      <c r="O20">
+        <v>31.90255158613374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>36.8057720178593</v>
+      </c>
+      <c r="C21">
+        <v>27.95984522451161</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>41.44555746540077</v>
+      </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>1.947887375003687</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>8.80229059834376</v>
+      </c>
+      <c r="O21">
+        <v>34.4326389558062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>38.41665375495356</v>
+      </c>
+      <c r="C22">
+        <v>29.19134280707847</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>43.46075033180233</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026788</v>
+      </c>
+      <c r="G22">
+        <v>1.93443690773773</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>8.474982551653797</v>
+      </c>
+      <c r="O22">
+        <v>36.10190918657742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>37.55831963730586</v>
+      </c>
+      <c r="C23">
+        <v>28.53467961617375</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>42.38312108466727</v>
+      </c>
       <c r="F23">
-        <v>40.01414225038425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038423</v>
+      </c>
+      <c r="G23">
+        <v>1.941654770034019</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>8.65007071283039</v>
+      </c>
+      <c r="O23">
+        <v>35.20887907152408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>34.26758655455613</v>
+      </c>
+      <c r="C24">
+        <v>26.02673234820168</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>38.32916944022714</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.85121910575583</v>
+      </c>
+      <c r="G24">
+        <v>1.968264425139874</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>9.305474744896248</v>
+      </c>
+      <c r="O24">
+        <v>31.86133059554852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>30.58675767881526</v>
+      </c>
+      <c r="C25">
+        <v>23.23696564731312</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>33.91932026234826</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459127059</v>
+      </c>
+      <c r="G25">
+        <v>1.996110508437079</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.00234758811679</v>
+      </c>
+      <c r="O25">
+        <v>28.27505376564598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.728531452274</v>
+        <v>13.85324633458317</v>
       </c>
       <c r="C2">
-        <v>21.08002559901384</v>
+        <v>6.041890661568594</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.57040484667226</v>
+        <v>10.1310841591284</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>27.12370114737035</v>
       </c>
       <c r="G2">
-        <v>2.016398206562165</v>
+        <v>2.106177010076058</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.78574737723668</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.464034407714027</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.79988836695084</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.56434681013994</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.51287631279886</v>
+        <v>12.87236248638829</v>
       </c>
       <c r="O2">
-        <v>26.06299568452545</v>
+        <v>15.96990092341719</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.68577358366419</v>
+        <v>12.99871215330418</v>
       </c>
       <c r="C3">
-        <v>19.54277823354317</v>
+        <v>6.002862406271545</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.21163682212407</v>
+        <v>9.896594770589067</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>26.57816383985399</v>
       </c>
       <c r="G3">
-        <v>2.030206820311621</v>
+        <v>2.110387961800917</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.91676192023101</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.438575741561467</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.15577063601011</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.303339642450073</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.85998210412201</v>
+        <v>13.05808926832954</v>
       </c>
       <c r="O3">
-        <v>24.5866025977285</v>
+        <v>16.03534214551787</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.37576356337109</v>
+        <v>12.44759167314913</v>
       </c>
       <c r="C4">
-        <v>18.55865451320725</v>
+        <v>5.979021652497224</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.71266596647874</v>
+        <v>9.754310102843872</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>26.25700763918925</v>
       </c>
       <c r="G4">
-        <v>2.038765883196044</v>
+        <v>2.113057443561758</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.00714930454682</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.422930195986081</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.738649342156098</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.142324861582015</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.07445961282617</v>
+        <v>13.17486004200606</v>
       </c>
       <c r="O4">
-        <v>23.69010880184218</v>
+        <v>16.08699805031588</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.82743667664683</v>
+        <v>12.21647376268706</v>
       </c>
       <c r="C5">
-        <v>18.14710539840635</v>
+        <v>5.969336462566764</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.08822485444645</v>
+        <v>9.696826723734691</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.12970970001027</v>
       </c>
       <c r="G5">
-        <v>2.04228058069402</v>
+        <v>2.11416678315317</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.04639718752271</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.416551858244548</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.563259775240358</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.076614987880241</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.16230992424806</v>
+        <v>13.22314934005392</v>
       </c>
       <c r="O5">
-        <v>23.32727961963576</v>
+        <v>16.11082714702493</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.73549967972821</v>
+        <v>12.17770630466825</v>
       </c>
       <c r="C6">
-        <v>18.07812260562627</v>
+        <v>5.967730043960368</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.98369257971954</v>
+        <v>9.68731392730017</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.10879078278723</v>
       </c>
       <c r="G6">
-        <v>2.042865989518992</v>
+        <v>2.114352298268535</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.05305764457517</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.415492603318968</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.533810893406802</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.065701053537035</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.17692753757775</v>
+        <v>13.23121075756182</v>
       </c>
       <c r="O6">
-        <v>23.26718486122397</v>
+        <v>16.11494871730961</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.36842787635424</v>
+        <v>12.44450100783025</v>
       </c>
       <c r="C7">
-        <v>18.55314725861265</v>
+        <v>5.978890913595614</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.70430064775521</v>
+        <v>9.753532745194939</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.25527624622425</v>
       </c>
       <c r="G7">
-        <v>2.038813166991829</v>
+        <v>2.113072316919185</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.00766895069463</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.422844185168075</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.736305830239692</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.141438930604048</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.07564243732089</v>
+        <v>13.17550841499907</v>
       </c>
       <c r="O7">
-        <v>23.68520537593535</v>
+        <v>16.08730830529026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.03545980713987</v>
+        <v>13.56414854502892</v>
       </c>
       <c r="C8">
-        <v>20.55808610030166</v>
+        <v>6.02840771744721</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.76706925061738</v>
+        <v>10.04992443054461</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>26.93279988992951</v>
       </c>
       <c r="G8">
-        <v>2.021146925839023</v>
+        <v>2.107611768197523</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.82880419981557</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.455259629602833</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.58230005434087</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.474563435665692</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.63234573880235</v>
+        <v>12.93584403074674</v>
       </c>
       <c r="O8">
-        <v>25.55180253709725</v>
+        <v>15.99001874028491</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.84761652755302</v>
+        <v>15.64804918709943</v>
       </c>
       <c r="C9">
-        <v>24.19094839632728</v>
+        <v>6.126534004627321</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.41665882883757</v>
+        <v>10.64144563848153</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>28.3660046491544</v>
       </c>
       <c r="G9">
-        <v>1.986793760525226</v>
+        <v>2.097550864787517</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.56102808033041</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.518680860643287</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.06895659172446</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.117975038870215</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.768392724577085</v>
+        <v>12.48675423362645</v>
       </c>
       <c r="O9">
-        <v>29.47851561492198</v>
+        <v>15.89515001423793</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.16911074665741</v>
+        <v>17.06272280306748</v>
       </c>
       <c r="C10">
-        <v>26.71238785484443</v>
+        <v>6.19934806943062</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.42835966633008</v>
+        <v>11.07831044762904</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>29.47584149945439</v>
       </c>
       <c r="G10">
-        <v>1.961139165964108</v>
+        <v>2.090526134019819</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.42080316197698</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.565141209446079</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.05589470317802</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.580032057001734</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.128679430146459</v>
+        <v>12.16837149115906</v>
       </c>
       <c r="O10">
-        <v>32.76629426405129</v>
+        <v>15.89072071265952</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.64535533584656</v>
+        <v>17.67173076151352</v>
       </c>
       <c r="C11">
-        <v>27.83741525058787</v>
+        <v>6.232657864009481</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.24654522077667</v>
+        <v>11.27677060227579</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>29.99161638811326</v>
       </c>
       <c r="G11">
-        <v>1.949204504582808</v>
+        <v>2.087403696160259</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.37065778970843</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.586237547041986</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.48211505955322</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.787085850090401</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.834571960672818</v>
+        <v>12.02577051923205</v>
       </c>
       <c r="O11">
-        <v>34.26798702532356</v>
+        <v>15.90436757499744</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.20063350751502</v>
+        <v>17.89743294532149</v>
       </c>
       <c r="C12">
-        <v>28.26135870827716</v>
+        <v>6.245300956092059</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.93667388001995</v>
+        <v>11.35182456056654</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>30.18837711614752</v>
       </c>
       <c r="G12">
-        <v>1.944628198706841</v>
+        <v>2.086231276132177</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.35375153305793</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.594219627291706</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.64025833517207</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.864981234373909</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.722578368860281</v>
+        <v>11.97206911860917</v>
       </c>
       <c r="O12">
-        <v>34.83914663298208</v>
+        <v>15.91191113712119</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.08118772306238</v>
+        <v>17.84904176730634</v>
       </c>
       <c r="C13">
-        <v>28.17012723008853</v>
+        <v>6.242576685726084</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.78792120510361</v>
+        <v>11.33566562493152</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>30.14593860279573</v>
       </c>
       <c r="G13">
-        <v>1.945616672418681</v>
+        <v>2.086483342837058</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.35729799011065</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.592500856355278</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.60634394956806</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.848228689036112</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.746728675883432</v>
+        <v>11.98362177302373</v>
       </c>
       <c r="O13">
-        <v>34.71599480432468</v>
+        <v>15.91017885749159</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.69110519177148</v>
+        <v>17.69039764694672</v>
       </c>
       <c r="C14">
-        <v>27.87232785321653</v>
+        <v>6.233697412953775</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.30327263811694</v>
+        <v>11.28294763497982</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>30.00777565249966</v>
       </c>
       <c r="G14">
-        <v>1.94882927516682</v>
+        <v>2.087307043652876</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.36922445082404</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.586894376992958</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.4951907862655</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.793504916186627</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.825371658693006</v>
+        <v>12.02134662409022</v>
       </c>
       <c r="O14">
-        <v>34.31491549654869</v>
+        <v>15.90493986376417</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.45172305303858</v>
+        <v>17.59258485291368</v>
       </c>
       <c r="C15">
-        <v>27.68968295047614</v>
+        <v>6.228262516045912</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.00671146800623</v>
+        <v>11.25064182618923</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>29.92333199071589</v>
       </c>
       <c r="G15">
-        <v>1.950789033562785</v>
+        <v>2.087812867283846</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.37680465632495</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.583459348866436</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.42668256813634</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.759916774487429</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.873456520888807</v>
+        <v>12.04449236646412</v>
       </c>
       <c r="O15">
-        <v>34.06962503009566</v>
+        <v>15.9020439066249</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.07203626017763</v>
+        <v>17.02223203533268</v>
       </c>
       <c r="C16">
-        <v>26.63850884583143</v>
+        <v>6.197175156469036</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.30960739441614</v>
+        <v>11.06532993619035</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>29.44234339334397</v>
       </c>
       <c r="G16">
-        <v>1.961912293843217</v>
+        <v>2.09073161919359</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.42436502863656</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.563761643400045</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.02758357717127</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.566432139275246</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.147822788433734</v>
+        <v>12.1777338268747</v>
       </c>
       <c r="O16">
-        <v>32.66840599312716</v>
+        <v>15.89015456836137</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.21755167392792</v>
+        <v>16.66352924948823</v>
       </c>
       <c r="C17">
-        <v>25.98870754711507</v>
+        <v>6.178153486482858</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.26839989306022</v>
+        <v>10.9515335222932</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>29.14997772921334</v>
       </c>
       <c r="G17">
-        <v>1.968656301913321</v>
+        <v>2.092540539600245</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15.45712050097879</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.551667062587328</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.77693213109231</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.446886567166302</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.315220900903052</v>
+        <v>12.2600293381495</v>
       </c>
       <c r="O17">
-        <v>31.81137618019045</v>
+        <v>15.88695996105455</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.72271746967345</v>
+        <v>16.45395930669167</v>
       </c>
       <c r="C18">
-        <v>25.61281172345444</v>
+        <v>6.167230077315327</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.66870030780215</v>
+        <v>10.88605849814322</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>28.98284994450711</v>
       </c>
       <c r="G18">
-        <v>1.972511765198455</v>
+        <v>2.093587901764541</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.47723723231359</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.544707001913156</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.63062225756093</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.377834828538113</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.411223332748751</v>
+        <v>12.30757513450387</v>
       </c>
       <c r="O18">
-        <v>31.31888495652359</v>
+        <v>15.88658921836124</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.55456500435221</v>
+        <v>16.38244221356872</v>
       </c>
       <c r="C19">
-        <v>25.48514216477513</v>
+        <v>6.163534507555718</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.46544231173057</v>
+        <v>10.86388784019528</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>28.92644457894154</v>
       </c>
       <c r="G19">
-        <v>1.97381362459251</v>
+        <v>2.093943724877854</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.48426408403415</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.542349863101948</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.58071607234877</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.3544068542486</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.443685177292295</v>
+        <v>12.32371033562132</v>
       </c>
       <c r="O19">
-        <v>31.15217076954809</v>
+        <v>15.88671184348737</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.30885235069633</v>
+        <v>16.70205014869395</v>
       </c>
       <c r="C20">
-        <v>26.05809522393224</v>
+        <v>6.180176562534842</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.3793069000691</v>
+        <v>10.963650103954</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>29.18099451311221</v>
       </c>
       <c r="G20">
-        <v>1.967940946592049</v>
+        <v>2.092347264655164</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>15.45350063853666</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.552954929403846</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.80383599238308</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.459643108078176</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.297431375785127</v>
+        <v>12.25124710124142</v>
       </c>
       <c r="O20">
-        <v>31.90255158613374</v>
+        <v>15.88714733976592</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.8057720178593</v>
+        <v>17.73712828181394</v>
       </c>
       <c r="C21">
-        <v>27.95984522451161</v>
+        <v>6.236304649548062</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.44555746540077</v>
+        <v>11.29843531087486</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>30.04831908132886</v>
       </c>
       <c r="G21">
-        <v>1.947887375003687</v>
+        <v>2.087064836365985</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.36566384764065</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.588541324895176</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.52792743213879</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.8095929346439</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.80229059834376</v>
+        <v>12.01025800582707</v>
       </c>
       <c r="O21">
-        <v>34.4326389558062</v>
+        <v>15.90641321674544</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.41665375495356</v>
+        <v>18.38498214294741</v>
       </c>
       <c r="C22">
-        <v>29.19134280707847</v>
+        <v>6.273160522337504</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.46075033180233</v>
+        <v>11.51663824807524</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>30.6235560073856</v>
       </c>
       <c r="G22">
-        <v>1.93443690773773</v>
+        <v>2.083670359284289</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.32045677530222</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.611759850273635</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.98218753425615</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.03530213021025</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.474982551653797</v>
+        <v>11.85448619914134</v>
       </c>
       <c r="O22">
-        <v>36.10190918657742</v>
+        <v>15.93291018618085</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.55831963730586</v>
+        <v>18.04181307092005</v>
       </c>
       <c r="C23">
-        <v>28.53467961617375</v>
+        <v>6.253473032023908</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.38312108466727</v>
+        <v>11.40025230183139</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>30.31581108893502</v>
       </c>
       <c r="G23">
-        <v>1.941654770034019</v>
+        <v>2.08547694437648</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15.34342714387038</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.599371636737181</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.74147100741489</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.915129550168624</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.65007071283039</v>
+        <v>11.93747416381465</v>
       </c>
       <c r="O23">
-        <v>35.20887907152408</v>
+        <v>15.91745491493329</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.26758655455613</v>
+        <v>16.68464527888585</v>
       </c>
       <c r="C24">
-        <v>26.02673234820168</v>
+        <v>6.179261891411492</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.32916944022714</v>
+        <v>10.95817235462154</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>29.16696883464532</v>
       </c>
       <c r="G24">
-        <v>1.968264425139874</v>
+        <v>2.092434621200208</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15.45513318439836</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.55237270568136</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.79167963201188</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.453876878591757</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.305474744896248</v>
+        <v>12.25521682307572</v>
       </c>
       <c r="O24">
-        <v>31.86133059554852</v>
+        <v>15.88705806932349</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.58675767881526</v>
+        <v>15.09613375315349</v>
       </c>
       <c r="C25">
-        <v>23.23696564731312</v>
+        <v>6.099869816443785</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.91932026234826</v>
+        <v>10.48074678345103</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>27.96779224847331</v>
       </c>
       <c r="G25">
-        <v>1.996110508437079</v>
+        <v>2.100206081149491</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.62399250134846</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.501543985722384</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.68528293022585</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.94547798739343</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.00234758811679</v>
+        <v>12.60612621350664</v>
       </c>
       <c r="O25">
-        <v>28.27505376564598</v>
+        <v>15.90985083437599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.85324633458317</v>
+        <v>13.31951409500135</v>
       </c>
       <c r="C2">
-        <v>6.041890661568594</v>
+        <v>8.421901884717794</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.1310841591284</v>
+        <v>15.41338964439735</v>
       </c>
       <c r="F2">
-        <v>27.12370114737035</v>
+        <v>38.70716184524979</v>
       </c>
       <c r="G2">
-        <v>2.106177010076058</v>
+        <v>3.664789623265651</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.78574737723668</v>
+        <v>25.64012644928269</v>
       </c>
       <c r="J2">
-        <v>5.464034407714027</v>
+        <v>8.128711292047736</v>
       </c>
       <c r="K2">
-        <v>10.79988836695084</v>
+        <v>9.915423429260676</v>
       </c>
       <c r="L2">
-        <v>8.56434681013994</v>
+        <v>12.58501652232382</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.87236248638829</v>
+        <v>19.82368920817019</v>
       </c>
       <c r="O2">
-        <v>15.96990092341719</v>
+        <v>25.46630810466185</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.99871215330418</v>
+        <v>13.0957736436648</v>
       </c>
       <c r="C3">
-        <v>6.002862406271545</v>
+        <v>8.413835677159037</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.896594770589067</v>
+        <v>15.4076678102597</v>
       </c>
       <c r="F3">
-        <v>26.57816383985399</v>
+        <v>38.72701607147268</v>
       </c>
       <c r="G3">
-        <v>2.110387961800917</v>
+        <v>3.666400352119401</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.91676192023101</v>
+        <v>25.72824997208459</v>
       </c>
       <c r="J3">
-        <v>5.438575741561467</v>
+        <v>8.122333459163174</v>
       </c>
       <c r="K3">
-        <v>10.15577063601011</v>
+        <v>9.76491553122958</v>
       </c>
       <c r="L3">
-        <v>8.303339642450073</v>
+        <v>12.56470262702102</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.05808926832954</v>
+        <v>19.8806308285916</v>
       </c>
       <c r="O3">
-        <v>16.03534214551787</v>
+        <v>25.54830361004298</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.44759167314913</v>
+        <v>12.95864625596074</v>
       </c>
       <c r="C4">
-        <v>5.979021652497224</v>
+        <v>8.408916072292596</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.754310102843872</v>
+        <v>15.40645347949633</v>
       </c>
       <c r="F4">
-        <v>26.25700763918925</v>
+        <v>38.74747177045469</v>
       </c>
       <c r="G4">
-        <v>2.113057443561758</v>
+        <v>3.667442258338199</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.00714930454682</v>
+        <v>25.78646307715764</v>
       </c>
       <c r="J4">
-        <v>5.422930195986081</v>
+        <v>8.118403366025538</v>
       </c>
       <c r="K4">
-        <v>9.738649342156098</v>
+        <v>9.672783890907898</v>
       </c>
       <c r="L4">
-        <v>8.142324861582015</v>
+        <v>12.5540417396292</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.17486004200606</v>
+        <v>19.917258321135</v>
       </c>
       <c r="O4">
-        <v>16.08699805031588</v>
+        <v>25.60313661622176</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21647376268706</v>
+        <v>12.90290002437177</v>
       </c>
       <c r="C5">
-        <v>5.969336462566764</v>
+        <v>8.406919950105705</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.696826723734691</v>
+        <v>15.40653878926022</v>
       </c>
       <c r="F5">
-        <v>26.12970970001027</v>
+        <v>38.75788667002743</v>
       </c>
       <c r="G5">
-        <v>2.11416678315317</v>
+        <v>3.667880189158277</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.04639718752271</v>
+        <v>25.81121757868561</v>
       </c>
       <c r="J5">
-        <v>5.416551858244548</v>
+        <v>8.116798428200104</v>
       </c>
       <c r="K5">
-        <v>9.563259775240358</v>
+        <v>9.635354697415071</v>
       </c>
       <c r="L5">
-        <v>8.076614987880241</v>
+        <v>12.55015637104398</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.22314934005392</v>
+        <v>19.93260422276991</v>
       </c>
       <c r="O5">
-        <v>16.11082714702493</v>
+        <v>25.62660904319126</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17770630466825</v>
+        <v>12.89365361575102</v>
       </c>
       <c r="C6">
-        <v>5.967730043960368</v>
+        <v>8.40658902824347</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.68731392730017</v>
+        <v>15.40658805126372</v>
       </c>
       <c r="F6">
-        <v>26.10879078278723</v>
+        <v>38.75974162751809</v>
       </c>
       <c r="G6">
-        <v>2.114352298268535</v>
+        <v>3.667953714465225</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.05305764457517</v>
+        <v>25.815390386051</v>
       </c>
       <c r="J6">
-        <v>5.415492603318968</v>
+        <v>8.11653172881755</v>
       </c>
       <c r="K6">
-        <v>9.533810893406802</v>
+        <v>9.629147872842998</v>
       </c>
       <c r="L6">
-        <v>8.065701053537035</v>
+        <v>12.54953902675058</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.23121075756182</v>
+        <v>19.93517779426266</v>
       </c>
       <c r="O6">
-        <v>16.11494871730961</v>
+        <v>25.63057469610058</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.44450100783025</v>
+        <v>12.95789380420907</v>
       </c>
       <c r="C7">
-        <v>5.978890913595614</v>
+        <v>8.408889116390197</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.753532745194939</v>
+        <v>15.40645227839023</v>
       </c>
       <c r="F7">
-        <v>26.25527624622425</v>
+        <v>38.7476038112455</v>
       </c>
       <c r="G7">
-        <v>2.113072316919185</v>
+        <v>3.667448110336645</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.00766895069463</v>
+        <v>25.78679274575551</v>
       </c>
       <c r="J7">
-        <v>5.422844185168075</v>
+        <v>8.118381734819526</v>
       </c>
       <c r="K7">
-        <v>9.736305830239692</v>
+        <v>9.672278582231618</v>
       </c>
       <c r="L7">
-        <v>8.141438930604048</v>
+        <v>12.5539874773054</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.17550841499907</v>
+        <v>19.91746357958107</v>
       </c>
       <c r="O7">
-        <v>16.08730830529026</v>
+        <v>25.60344860942048</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56414854502892</v>
+        <v>13.24235904181496</v>
       </c>
       <c r="C8">
-        <v>6.02840771744721</v>
+        <v>8.419113992731566</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.04992443054461</v>
+        <v>15.41094093622436</v>
       </c>
       <c r="F8">
-        <v>26.93279988992951</v>
+        <v>38.71229283983186</v>
       </c>
       <c r="G8">
-        <v>2.107611768197523</v>
+        <v>3.665334044992904</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.82880419981557</v>
+        <v>25.6696594536228</v>
       </c>
       <c r="J8">
-        <v>5.455259629602833</v>
+        <v>8.126515224699526</v>
       </c>
       <c r="K8">
-        <v>10.58230005434087</v>
+        <v>9.863496682945705</v>
       </c>
       <c r="L8">
-        <v>8.474563435665692</v>
+        <v>12.57763835051813</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.93584403074674</v>
+        <v>19.84297780882661</v>
       </c>
       <c r="O8">
-        <v>15.99001874028491</v>
+        <v>25.49364827379184</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.64804918709943</v>
+        <v>13.79909424219039</v>
       </c>
       <c r="C9">
-        <v>6.126534004627321</v>
+        <v>8.439413267308066</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.64144563848153</v>
+        <v>15.43788404713001</v>
       </c>
       <c r="F9">
-        <v>28.3660046491544</v>
+        <v>38.70856267365831</v>
       </c>
       <c r="G9">
-        <v>2.097550864787517</v>
+        <v>3.661606360198013</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.56102808033041</v>
+        <v>25.47253290876476</v>
       </c>
       <c r="J9">
-        <v>5.518680860643287</v>
+        <v>8.142347317428099</v>
       </c>
       <c r="K9">
-        <v>12.06895659172446</v>
+        <v>10.2387643449703</v>
       </c>
       <c r="L9">
-        <v>9.117975038870215</v>
+        <v>12.63823401461629</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.48675423362645</v>
+        <v>19.71006788354083</v>
       </c>
       <c r="O9">
-        <v>15.89515001423793</v>
+        <v>25.31397410853214</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.06272280306748</v>
+        <v>14.20343384289995</v>
       </c>
       <c r="C10">
-        <v>6.19934806943062</v>
+        <v>8.454460614525081</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.07831044762904</v>
+        <v>15.46859203891056</v>
       </c>
       <c r="F10">
-        <v>29.47584149945439</v>
+        <v>38.74562192037857</v>
       </c>
       <c r="G10">
-        <v>2.090526134019819</v>
+        <v>3.659119866406749</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.42080316197698</v>
+        <v>25.34756147733002</v>
       </c>
       <c r="J10">
-        <v>5.565141209446079</v>
+        <v>8.153900180865161</v>
       </c>
       <c r="K10">
-        <v>13.05589470317802</v>
+        <v>10.51210371856222</v>
       </c>
       <c r="L10">
-        <v>9.580032057001734</v>
+        <v>12.69118965344785</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.16837149115906</v>
+        <v>19.6203606794436</v>
       </c>
       <c r="O10">
-        <v>15.89072071265952</v>
+        <v>25.20374809216451</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.67173076151352</v>
+        <v>14.38554879511267</v>
       </c>
       <c r="C11">
-        <v>6.232657864009481</v>
+        <v>8.461331213302726</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.27677060227579</v>
+        <v>15.48489536053045</v>
       </c>
       <c r="F11">
-        <v>29.99161638811326</v>
+        <v>38.77107344697674</v>
       </c>
       <c r="G11">
-        <v>2.087403696160259</v>
+        <v>3.658042917834075</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.37065778970843</v>
+        <v>25.29502114118871</v>
       </c>
       <c r="J11">
-        <v>5.586237547041986</v>
+        <v>8.159137168913835</v>
       </c>
       <c r="K11">
-        <v>13.48211505955322</v>
+        <v>10.63541956149579</v>
       </c>
       <c r="L11">
-        <v>9.787085850090401</v>
+        <v>12.71705751833669</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.02577051923205</v>
+        <v>19.58125823183878</v>
       </c>
       <c r="O11">
-        <v>15.90436757499744</v>
+        <v>25.15834336756936</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.89743294532149</v>
+        <v>14.45418505890274</v>
       </c>
       <c r="C12">
-        <v>6.245300956092059</v>
+        <v>8.463936239030108</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.35182456056654</v>
+        <v>15.49140113178826</v>
       </c>
       <c r="F12">
-        <v>30.18837711614752</v>
+        <v>38.78194095253365</v>
       </c>
       <c r="G12">
-        <v>2.086231276132177</v>
+        <v>3.65764285354876</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.35375153305793</v>
+        <v>25.27574538854339</v>
       </c>
       <c r="J12">
-        <v>5.594219627291706</v>
+        <v>8.16111746442791</v>
       </c>
       <c r="K12">
-        <v>13.64025833517207</v>
+        <v>10.68192686230067</v>
       </c>
       <c r="L12">
-        <v>9.864981234373909</v>
+        <v>12.72710358293857</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.97206911860917</v>
+        <v>19.56669521016185</v>
       </c>
       <c r="O12">
-        <v>15.91191113712119</v>
+        <v>25.14183191360069</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.84904176730634</v>
+        <v>14.43941854214322</v>
       </c>
       <c r="C13">
-        <v>6.242576685726084</v>
+        <v>8.463375060469716</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.33566562493152</v>
+        <v>15.48998528894409</v>
       </c>
       <c r="F13">
-        <v>30.14593860279573</v>
+        <v>38.77954586383481</v>
       </c>
       <c r="G13">
-        <v>2.086483342837058</v>
+        <v>3.657728670327463</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.35729799011065</v>
+        <v>25.27986917991762</v>
       </c>
       <c r="J13">
-        <v>5.592500856355278</v>
+        <v>8.160691101531599</v>
       </c>
       <c r="K13">
-        <v>13.60634394956806</v>
+        <v>10.67191977164119</v>
       </c>
       <c r="L13">
-        <v>9.848228689036112</v>
+        <v>12.72492892954626</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.98362177302373</v>
+        <v>19.5698207722654</v>
       </c>
       <c r="O13">
-        <v>15.91017885749159</v>
+        <v>25.14535758734656</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.69039764694672</v>
+        <v>14.3912024502787</v>
       </c>
       <c r="C14">
-        <v>6.233697412953775</v>
+        <v>8.461545466840102</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.28294763497982</v>
+        <v>15.48542396074496</v>
       </c>
       <c r="F14">
-        <v>30.00777565249966</v>
+        <v>38.77194291956309</v>
       </c>
       <c r="G14">
-        <v>2.087307043652876</v>
+        <v>3.658009849137889</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.36922445082404</v>
+        <v>25.29342288278051</v>
       </c>
       <c r="J14">
-        <v>5.586894376992958</v>
+        <v>8.159300146957941</v>
       </c>
       <c r="K14">
-        <v>13.4951907862655</v>
+        <v>10.63924978205073</v>
       </c>
       <c r="L14">
-        <v>9.793504916186627</v>
+        <v>12.71787902524136</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.02134662409022</v>
+        <v>19.58005523468547</v>
       </c>
       <c r="O14">
-        <v>15.90493986376417</v>
+        <v>25.15697127946485</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.59258485291368</v>
+        <v>14.36162428125464</v>
       </c>
       <c r="C15">
-        <v>6.228262516045912</v>
+        <v>8.460425203444515</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.25064182618923</v>
+        <v>15.48267314852214</v>
       </c>
       <c r="F15">
-        <v>29.92333199071589</v>
+        <v>38.76744582330448</v>
       </c>
       <c r="G15">
-        <v>2.087812867283846</v>
+        <v>3.65818308783003</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.37680465632495</v>
+        <v>25.30180568838265</v>
       </c>
       <c r="J15">
-        <v>5.583459348866436</v>
+        <v>8.158447772020804</v>
       </c>
       <c r="K15">
-        <v>13.42668256813634</v>
+        <v>10.61921254439708</v>
       </c>
       <c r="L15">
-        <v>9.759916774487429</v>
+        <v>12.7135932139189</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.04449236646412</v>
+        <v>19.58635591248111</v>
       </c>
       <c r="O15">
-        <v>15.9020439066249</v>
+        <v>25.16417389156205</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.02223203533268</v>
+        <v>14.19148994517163</v>
       </c>
       <c r="C16">
-        <v>6.197175156469036</v>
+        <v>8.454012084674002</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.06532993619035</v>
+        <v>15.46757324598889</v>
       </c>
       <c r="F16">
-        <v>29.44234339334397</v>
+        <v>38.74413101940242</v>
       </c>
       <c r="G16">
-        <v>2.09073161919359</v>
+        <v>3.659191334412903</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.42436502863656</v>
+        <v>25.35108186900369</v>
       </c>
       <c r="J16">
-        <v>5.563761643400045</v>
+        <v>8.153557544238522</v>
       </c>
       <c r="K16">
-        <v>13.02758357717127</v>
+        <v>10.50402043527674</v>
       </c>
       <c r="L16">
-        <v>9.566432139275246</v>
+        <v>12.6895344669282</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.1777338268747</v>
+        <v>19.62295035015127</v>
       </c>
       <c r="O16">
-        <v>15.89015456836137</v>
+        <v>25.20681082291755</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.66352924948823</v>
+        <v>14.08660452189859</v>
       </c>
       <c r="C17">
-        <v>6.178153486482858</v>
+        <v>8.450084098057687</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.9515335222932</v>
+        <v>15.45890529450717</v>
       </c>
       <c r="F17">
-        <v>29.14997772921334</v>
+        <v>38.73202501894671</v>
       </c>
       <c r="G17">
-        <v>2.092540539600245</v>
+        <v>3.659823708963458</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.45712050097879</v>
+        <v>25.3824153255226</v>
       </c>
       <c r="J17">
-        <v>5.551667062587328</v>
+        <v>8.150552689129643</v>
       </c>
       <c r="K17">
-        <v>12.77693213109231</v>
+        <v>10.43306023732648</v>
       </c>
       <c r="L17">
-        <v>9.446886567166302</v>
+        <v>12.67522698358858</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.2600293381495</v>
+        <v>19.64583598843642</v>
       </c>
       <c r="O17">
-        <v>15.88695996105455</v>
+        <v>25.23418139176282</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.45395930669167</v>
+        <v>14.02610947949793</v>
       </c>
       <c r="C18">
-        <v>6.167230077315327</v>
+        <v>8.447827246115983</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.88605849814322</v>
+        <v>15.4541396453265</v>
       </c>
       <c r="F18">
-        <v>28.98284994450711</v>
+        <v>38.72587122118495</v>
       </c>
       <c r="G18">
-        <v>2.093587901764541</v>
+        <v>3.66019253498904</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.47723723231359</v>
+        <v>25.40084313534886</v>
       </c>
       <c r="J18">
-        <v>5.544707001913156</v>
+        <v>8.148822648843243</v>
       </c>
       <c r="K18">
-        <v>12.63062225756093</v>
+        <v>10.39215149584521</v>
       </c>
       <c r="L18">
-        <v>9.377834828538113</v>
+        <v>12.66716538821087</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.30757513450387</v>
+        <v>19.65915982415721</v>
       </c>
       <c r="O18">
-        <v>15.88658921836124</v>
+        <v>25.25037008726189</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.38244221356872</v>
+        <v>14.00560011587873</v>
       </c>
       <c r="C19">
-        <v>6.163534507555718</v>
+        <v>8.44706354250981</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.86388784019528</v>
+        <v>15.45256395618767</v>
       </c>
       <c r="F19">
-        <v>28.92644457894154</v>
+        <v>38.72392681035118</v>
       </c>
       <c r="G19">
-        <v>2.093943724877854</v>
+        <v>3.660318290357187</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.48426408403415</v>
+        <v>25.40715213152742</v>
       </c>
       <c r="J19">
-        <v>5.542349863101948</v>
+        <v>8.148236595803066</v>
       </c>
       <c r="K19">
-        <v>12.58071607234877</v>
+        <v>10.37828560612768</v>
       </c>
       <c r="L19">
-        <v>9.3544068542486</v>
+        <v>12.66446482628575</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.32371033562132</v>
+        <v>19.66369866566161</v>
       </c>
       <c r="O19">
-        <v>15.88671184348737</v>
+        <v>25.25592784669434</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.70205014869395</v>
+        <v>14.09778759196813</v>
       </c>
       <c r="C20">
-        <v>6.180176562534842</v>
+        <v>8.450501991050539</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.963650103954</v>
+        <v>15.45980527626272</v>
       </c>
       <c r="F20">
-        <v>29.18099451311221</v>
+        <v>38.7332300096428</v>
       </c>
       <c r="G20">
-        <v>2.092347264655164</v>
+        <v>3.659755863955777</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.45350063853666</v>
+        <v>25.37903784115232</v>
       </c>
       <c r="J20">
-        <v>5.552954929403846</v>
+        <v>8.15087274114509</v>
       </c>
       <c r="K20">
-        <v>12.80383599238308</v>
+        <v>10.4406241417427</v>
       </c>
       <c r="L20">
-        <v>9.459643108078176</v>
+        <v>12.67673272124602</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.25124710124142</v>
+        <v>19.64338315716749</v>
       </c>
       <c r="O20">
-        <v>15.88714733976592</v>
+        <v>25.23122159446389</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.73712828181394</v>
+        <v>14.40537405384062</v>
       </c>
       <c r="C21">
-        <v>6.236304649548062</v>
+        <v>8.462082776935508</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.29843531087486</v>
+        <v>15.48675475127215</v>
       </c>
       <c r="F21">
-        <v>30.04831908132886</v>
+        <v>38.77414277237904</v>
       </c>
       <c r="G21">
-        <v>2.087064836365985</v>
+        <v>3.657927049989173</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.36566384764065</v>
+        <v>25.28942499834247</v>
       </c>
       <c r="J21">
-        <v>5.588541324895176</v>
+        <v>8.159708782534207</v>
       </c>
       <c r="K21">
-        <v>13.52792743213879</v>
+        <v>10.64885122533039</v>
       </c>
       <c r="L21">
-        <v>9.8095929346439</v>
+        <v>12.71994299835869</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.01025800582707</v>
+        <v>19.57704250518993</v>
       </c>
       <c r="O21">
-        <v>15.90641321674544</v>
+        <v>25.15354153006481</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38498214294741</v>
+        <v>14.60446734704884</v>
       </c>
       <c r="C22">
-        <v>6.273160522337504</v>
+        <v>8.469670421696913</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.51663824807524</v>
+        <v>15.50630143605782</v>
       </c>
       <c r="F22">
-        <v>30.6235560073856</v>
+        <v>38.80804490951603</v>
       </c>
       <c r="G22">
-        <v>2.083670359284289</v>
+        <v>3.656776986540283</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.32045677530222</v>
+        <v>25.2344726180466</v>
       </c>
       <c r="J22">
-        <v>5.611759850273635</v>
+        <v>8.165467015955254</v>
       </c>
       <c r="K22">
-        <v>13.98218753425615</v>
+        <v>10.78381550165625</v>
       </c>
       <c r="L22">
-        <v>10.03530213021025</v>
+        <v>12.74964071423921</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.85448619914134</v>
+        <v>19.53510810678748</v>
       </c>
       <c r="O22">
-        <v>15.93291018618085</v>
+        <v>25.10675072195219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.04181307092005</v>
+        <v>14.49840493454887</v>
       </c>
       <c r="C23">
-        <v>6.253473032023908</v>
+        <v>8.465619148903091</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.40025230183139</v>
+        <v>15.49569332238624</v>
       </c>
       <c r="F23">
-        <v>30.31581108893502</v>
+        <v>38.78929754567675</v>
       </c>
       <c r="G23">
-        <v>2.08547694437648</v>
+        <v>3.6573866758656</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.34342714387038</v>
+        <v>25.26347085297903</v>
       </c>
       <c r="J23">
-        <v>5.599371636737181</v>
+        <v>8.162395321333719</v>
       </c>
       <c r="K23">
-        <v>13.74147100741489</v>
+        <v>10.71189881190094</v>
       </c>
       <c r="L23">
-        <v>9.915129550168624</v>
+        <v>12.73365893252299</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.93747416381465</v>
+        <v>19.55735942446994</v>
       </c>
       <c r="O23">
-        <v>15.91745491493329</v>
+        <v>25.13135956521496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.68464527888585</v>
+        <v>14.09273232844489</v>
       </c>
       <c r="C24">
-        <v>6.179261891411492</v>
+        <v>8.450313057246426</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.95817235462154</v>
+        <v>15.45939771622733</v>
       </c>
       <c r="F24">
-        <v>29.16696883464532</v>
+        <v>38.73268272195804</v>
       </c>
       <c r="G24">
-        <v>2.092434621200208</v>
+        <v>3.659786520279064</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.45513318439836</v>
+        <v>25.38056351293505</v>
       </c>
       <c r="J24">
-        <v>5.55237270568136</v>
+        <v>8.150728053429676</v>
       </c>
       <c r="K24">
-        <v>12.79167963201188</v>
+        <v>10.43720484861635</v>
       </c>
       <c r="L24">
-        <v>9.453876878591757</v>
+        <v>12.67605146612194</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.25521682307572</v>
+        <v>19.64449156321647</v>
       </c>
       <c r="O24">
-        <v>15.88705806932349</v>
+        <v>25.23255830785793</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.09613375315349</v>
+        <v>13.64902343010496</v>
       </c>
       <c r="C25">
-        <v>6.099869816443785</v>
+        <v>8.433897026669229</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.48074678345103</v>
+        <v>15.42866721642046</v>
       </c>
       <c r="F25">
-        <v>27.96779224847331</v>
+        <v>38.70256848981511</v>
       </c>
       <c r="G25">
-        <v>2.100206081149491</v>
+        <v>3.662570317001947</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.62399250134846</v>
+        <v>25.52237380789224</v>
       </c>
       <c r="J25">
-        <v>5.501543985722384</v>
+        <v>8.138077647342479</v>
       </c>
       <c r="K25">
-        <v>11.68528293022585</v>
+        <v>10.13748016234295</v>
       </c>
       <c r="L25">
-        <v>8.94547798739343</v>
+        <v>12.62034200357972</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.60612621350664</v>
+        <v>19.7446232404371</v>
       </c>
       <c r="O25">
-        <v>15.90985083437599</v>
+        <v>25.3587594109528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.31951409500135</v>
+        <v>13.85324633458316</v>
       </c>
       <c r="C2">
-        <v>8.421901884717794</v>
+        <v>6.041890661568456</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.41338964439735</v>
+        <v>10.13108415912828</v>
       </c>
       <c r="F2">
-        <v>38.70716184524979</v>
+        <v>27.12370114737034</v>
       </c>
       <c r="G2">
-        <v>3.664789623265651</v>
+        <v>2.106177010075791</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.64012644928269</v>
+        <v>15.7857473772367</v>
       </c>
       <c r="J2">
-        <v>8.128711292047736</v>
+        <v>5.464034407713954</v>
       </c>
       <c r="K2">
-        <v>9.915423429260676</v>
+        <v>10.79988836695082</v>
       </c>
       <c r="L2">
-        <v>12.58501652232382</v>
+        <v>8.564346810139941</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.82368920817019</v>
+        <v>12.87236248638829</v>
       </c>
       <c r="O2">
-        <v>25.46630810466185</v>
+        <v>15.96990092341724</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.0957736436648</v>
+        <v>12.99871215330419</v>
       </c>
       <c r="C3">
-        <v>8.413835677159037</v>
+        <v>6.002862406271683</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.4076678102597</v>
+        <v>9.896594770589095</v>
       </c>
       <c r="F3">
-        <v>38.72701607147268</v>
+        <v>26.57816383985405</v>
       </c>
       <c r="G3">
-        <v>3.666400352119401</v>
+        <v>2.110387961800782</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.72824997208459</v>
+        <v>15.91676192023102</v>
       </c>
       <c r="J3">
-        <v>8.122333459163174</v>
+        <v>5.438575741561431</v>
       </c>
       <c r="K3">
-        <v>9.76491553122958</v>
+        <v>10.15577063601015</v>
       </c>
       <c r="L3">
-        <v>12.56470262702102</v>
+        <v>8.303339642450073</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.8806308285916</v>
+        <v>13.05808926832958</v>
       </c>
       <c r="O3">
-        <v>25.54830361004298</v>
+        <v>16.03534214551786</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.95864625596074</v>
+        <v>12.44759167314916</v>
       </c>
       <c r="C4">
-        <v>8.408916072292596</v>
+        <v>5.979021652497214</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.40645347949633</v>
+        <v>9.754310102843927</v>
       </c>
       <c r="F4">
-        <v>38.74747177045469</v>
+        <v>26.2570076391895</v>
       </c>
       <c r="G4">
-        <v>3.667442258338199</v>
+        <v>2.113057443561892</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.78646307715764</v>
+        <v>16.00714930454695</v>
       </c>
       <c r="J4">
-        <v>8.118403366025538</v>
+        <v>5.422930195985979</v>
       </c>
       <c r="K4">
-        <v>9.672783890907898</v>
+        <v>9.738649342156076</v>
       </c>
       <c r="L4">
-        <v>12.5540417396292</v>
+        <v>8.142324861581995</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.917258321135</v>
+        <v>13.17486004200612</v>
       </c>
       <c r="O4">
-        <v>25.60313661622176</v>
+        <v>16.08699805031604</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.90290002437177</v>
+        <v>12.21647376268707</v>
       </c>
       <c r="C5">
-        <v>8.406919950105705</v>
+        <v>5.96933646256689</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.40653878926022</v>
+        <v>9.696826723734778</v>
       </c>
       <c r="F5">
-        <v>38.75788667002743</v>
+        <v>26.12970970001035</v>
       </c>
       <c r="G5">
-        <v>3.667880189158277</v>
+        <v>2.114166783153437</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.81121757868561</v>
+        <v>16.04639718752272</v>
       </c>
       <c r="J5">
-        <v>8.116798428200104</v>
+        <v>5.416551858244514</v>
       </c>
       <c r="K5">
-        <v>9.635354697415071</v>
+        <v>9.56325977524039</v>
       </c>
       <c r="L5">
-        <v>12.55015637104398</v>
+        <v>8.076614987880227</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.93260422276991</v>
+        <v>13.22314934005392</v>
       </c>
       <c r="O5">
-        <v>25.62660904319126</v>
+        <v>16.11082714702491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.89365361575102</v>
+        <v>12.17770630466826</v>
       </c>
       <c r="C6">
-        <v>8.40658902824347</v>
+        <v>5.967730043960636</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.40658805126372</v>
+        <v>9.687313927300162</v>
       </c>
       <c r="F6">
-        <v>38.75974162751809</v>
+        <v>26.10879078278728</v>
       </c>
       <c r="G6">
-        <v>3.667953714465225</v>
+        <v>2.114352298268668</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.815390386051</v>
+        <v>16.05305764457527</v>
       </c>
       <c r="J6">
-        <v>8.11653172881755</v>
+        <v>5.415492603318935</v>
       </c>
       <c r="K6">
-        <v>9.629147872842998</v>
+        <v>9.533810893406795</v>
       </c>
       <c r="L6">
-        <v>12.54953902675058</v>
+        <v>8.065701053536939</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.93517779426266</v>
+        <v>13.23121075756182</v>
       </c>
       <c r="O6">
-        <v>25.63057469610058</v>
+        <v>16.11494871730961</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.95789380420907</v>
+        <v>12.44450100783025</v>
       </c>
       <c r="C7">
-        <v>8.408889116390197</v>
+        <v>5.978890913595744</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.40645227839023</v>
+        <v>9.753532745194931</v>
       </c>
       <c r="F7">
-        <v>38.7476038112455</v>
+        <v>26.25527624622427</v>
       </c>
       <c r="G7">
-        <v>3.667448110336645</v>
+        <v>2.113072316919185</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.78679274575551</v>
+        <v>16.00766895069462</v>
       </c>
       <c r="J7">
-        <v>8.118381734819526</v>
+        <v>5.422844185168007</v>
       </c>
       <c r="K7">
-        <v>9.672278582231618</v>
+        <v>9.736305830239662</v>
       </c>
       <c r="L7">
-        <v>12.5539874773054</v>
+        <v>8.141438930604025</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.91746357958107</v>
+        <v>13.17550841499901</v>
       </c>
       <c r="O7">
-        <v>25.60344860942048</v>
+        <v>16.08730830529029</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.24235904181496</v>
+        <v>13.56414854502893</v>
       </c>
       <c r="C8">
-        <v>8.419113992731566</v>
+        <v>6.028407717447201</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.41094093622436</v>
+        <v>10.04992443054456</v>
       </c>
       <c r="F8">
-        <v>38.71229283983186</v>
+        <v>26.93279988992949</v>
       </c>
       <c r="G8">
-        <v>3.665334044992904</v>
+        <v>2.107611768197792</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.6696594536228</v>
+        <v>15.8288041998155</v>
       </c>
       <c r="J8">
-        <v>8.126515224699526</v>
+        <v>5.455259629602695</v>
       </c>
       <c r="K8">
-        <v>9.863496682945705</v>
+        <v>10.58230005434091</v>
       </c>
       <c r="L8">
-        <v>12.57763835051813</v>
+        <v>8.474563435665667</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.84297780882661</v>
+        <v>12.9358440307467</v>
       </c>
       <c r="O8">
-        <v>25.49364827379184</v>
+        <v>15.99001874028485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.79909424219039</v>
+        <v>15.6480491870994</v>
       </c>
       <c r="C9">
-        <v>8.439413267308066</v>
+        <v>6.12653400462705</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.43788404713001</v>
+        <v>10.64144563848145</v>
       </c>
       <c r="F9">
-        <v>38.70856267365831</v>
+        <v>28.36600464915459</v>
       </c>
       <c r="G9">
-        <v>3.661606360198013</v>
+        <v>2.097550864787519</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.47253290876476</v>
+        <v>15.5610280803306</v>
       </c>
       <c r="J9">
-        <v>8.142347317428099</v>
+        <v>5.518680860643219</v>
       </c>
       <c r="K9">
-        <v>10.2387643449703</v>
+        <v>12.06895659172437</v>
       </c>
       <c r="L9">
-        <v>12.63823401461629</v>
+        <v>9.117975038870171</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.71006788354083</v>
+        <v>12.48675423362655</v>
       </c>
       <c r="O9">
-        <v>25.31397410853214</v>
+        <v>15.89515001423818</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.20343384289995</v>
+        <v>17.06272280306749</v>
       </c>
       <c r="C10">
-        <v>8.454460614525081</v>
+        <v>6.199348069430481</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.46859203891056</v>
+        <v>11.07831044762895</v>
       </c>
       <c r="F10">
-        <v>38.74562192037857</v>
+        <v>29.47584149945434</v>
       </c>
       <c r="G10">
-        <v>3.659119866406749</v>
+        <v>2.090526134019819</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.34756147733002</v>
+        <v>15.42080316197693</v>
       </c>
       <c r="J10">
-        <v>8.153900180865161</v>
+        <v>5.565141209446015</v>
       </c>
       <c r="K10">
-        <v>10.51210371856222</v>
+        <v>13.05589470317802</v>
       </c>
       <c r="L10">
-        <v>12.69118965344785</v>
+        <v>9.580032057001702</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.6203606794436</v>
+        <v>12.16837149115899</v>
       </c>
       <c r="O10">
-        <v>25.20374809216451</v>
+        <v>15.89072071265946</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.38554879511267</v>
+        <v>17.6717307615136</v>
       </c>
       <c r="C11">
-        <v>8.461331213302726</v>
+        <v>6.232657864009597</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.48489536053045</v>
+        <v>11.27677060227577</v>
       </c>
       <c r="F11">
-        <v>38.77107344697674</v>
+        <v>29.99161638811319</v>
       </c>
       <c r="G11">
-        <v>3.658042917834075</v>
+        <v>2.087403696160124</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.29502114118871</v>
+        <v>15.37065778970828</v>
       </c>
       <c r="J11">
-        <v>8.159137168913835</v>
+        <v>5.586237547041891</v>
       </c>
       <c r="K11">
-        <v>10.63541956149579</v>
+        <v>13.4821150595533</v>
       </c>
       <c r="L11">
-        <v>12.71705751833669</v>
+        <v>9.78708585009039</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.58125823183878</v>
+        <v>12.02577051923202</v>
       </c>
       <c r="O11">
-        <v>25.15834336756936</v>
+        <v>15.90436757499729</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.45418505890274</v>
+        <v>17.89743294532148</v>
       </c>
       <c r="C12">
-        <v>8.463936239030108</v>
+        <v>6.245300956092299</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.49140113178826</v>
+        <v>11.35182456056663</v>
       </c>
       <c r="F12">
-        <v>38.78194095253365</v>
+        <v>30.18837711614767</v>
       </c>
       <c r="G12">
-        <v>3.65764285354876</v>
+        <v>2.086231276132311</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.27574538854339</v>
+        <v>15.35375153305804</v>
       </c>
       <c r="J12">
-        <v>8.16111746442791</v>
+        <v>5.5942196272917</v>
       </c>
       <c r="K12">
-        <v>10.68192686230067</v>
+        <v>13.64025833517205</v>
       </c>
       <c r="L12">
-        <v>12.72710358293857</v>
+        <v>9.864981234373955</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.56669521016185</v>
+        <v>11.97206911860924</v>
       </c>
       <c r="O12">
-        <v>25.14183191360069</v>
+        <v>15.91191113712126</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.43941854214322</v>
+        <v>17.84904176730647</v>
       </c>
       <c r="C13">
-        <v>8.463375060469716</v>
+        <v>6.242576685726065</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.48998528894409</v>
+        <v>11.33566562493153</v>
       </c>
       <c r="F13">
-        <v>38.77954586383481</v>
+        <v>30.1459386027957</v>
       </c>
       <c r="G13">
-        <v>3.657728670327463</v>
+        <v>2.086483342837056</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.27986917991762</v>
+        <v>15.35729799011048</v>
       </c>
       <c r="J13">
-        <v>8.160691101531599</v>
+        <v>5.592500856355149</v>
       </c>
       <c r="K13">
-        <v>10.67191977164119</v>
+        <v>13.60634394956815</v>
       </c>
       <c r="L13">
-        <v>12.72492892954626</v>
+        <v>9.848228689036093</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.5698207722654</v>
+        <v>11.98362177302369</v>
       </c>
       <c r="O13">
-        <v>25.14535758734656</v>
+        <v>15.91017885749141</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.3912024502787</v>
+        <v>17.69039764694676</v>
       </c>
       <c r="C14">
-        <v>8.461545466840102</v>
+        <v>6.233697412953767</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.48542396074496</v>
+        <v>11.28294763497991</v>
       </c>
       <c r="F14">
-        <v>38.77194291956309</v>
+        <v>30.00777565249956</v>
       </c>
       <c r="G14">
-        <v>3.658009849137889</v>
+        <v>2.087307043652877</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.29342288278051</v>
+        <v>15.36922445082394</v>
       </c>
       <c r="J14">
-        <v>8.159300146957941</v>
+        <v>5.586894376992959</v>
       </c>
       <c r="K14">
-        <v>10.63924978205073</v>
+        <v>13.49519078626555</v>
       </c>
       <c r="L14">
-        <v>12.71787902524136</v>
+        <v>9.793504916186645</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.58005523468547</v>
+        <v>12.02134662409012</v>
       </c>
       <c r="O14">
-        <v>25.15697127946485</v>
+        <v>15.90493986376403</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.36162428125464</v>
+        <v>17.59258485291364</v>
       </c>
       <c r="C15">
-        <v>8.460425203444515</v>
+        <v>6.228262516045901</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.48267314852214</v>
+        <v>11.25064182618928</v>
       </c>
       <c r="F15">
-        <v>38.76744582330448</v>
+        <v>29.923331990716</v>
       </c>
       <c r="G15">
-        <v>3.65818308783003</v>
+        <v>2.08781286728398</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.30180568838265</v>
+        <v>15.37680465632506</v>
       </c>
       <c r="J15">
-        <v>8.158447772020804</v>
+        <v>5.5834593488665</v>
       </c>
       <c r="K15">
-        <v>10.61921254439708</v>
+        <v>13.42668256813631</v>
       </c>
       <c r="L15">
-        <v>12.7135932139189</v>
+        <v>9.759916774487463</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.58635591248111</v>
+        <v>12.04449236646416</v>
       </c>
       <c r="O15">
-        <v>25.16417389156205</v>
+        <v>15.90204390662502</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.19148994517163</v>
+        <v>17.02223203533273</v>
       </c>
       <c r="C16">
-        <v>8.454012084674002</v>
+        <v>6.197175156469158</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.46757324598889</v>
+        <v>11.06532993619036</v>
       </c>
       <c r="F16">
-        <v>38.74413101940242</v>
+        <v>29.442343393344</v>
       </c>
       <c r="G16">
-        <v>3.659191334412903</v>
+        <v>2.090731619193323</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.35108186900369</v>
+        <v>15.42436502863659</v>
       </c>
       <c r="J16">
-        <v>8.153557544238522</v>
+        <v>5.563761643400009</v>
       </c>
       <c r="K16">
-        <v>10.50402043527674</v>
+        <v>13.02758357717135</v>
       </c>
       <c r="L16">
-        <v>12.6895344669282</v>
+        <v>9.566432139275232</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.62295035015127</v>
+        <v>12.1777338268747</v>
       </c>
       <c r="O16">
-        <v>25.20681082291755</v>
+        <v>15.89015456836131</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.08660452189859</v>
+        <v>16.66352924948828</v>
       </c>
       <c r="C17">
-        <v>8.450084098057687</v>
+        <v>6.17815348648284</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.45890529450717</v>
+        <v>10.95153352229324</v>
       </c>
       <c r="F17">
-        <v>38.73202501894671</v>
+        <v>29.14997772921333</v>
       </c>
       <c r="G17">
-        <v>3.659823708963458</v>
+        <v>2.092540539600109</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.3824153255226</v>
+        <v>15.45712050097866</v>
       </c>
       <c r="J17">
-        <v>8.150552689129643</v>
+        <v>5.55166706258729</v>
       </c>
       <c r="K17">
-        <v>10.43306023732648</v>
+        <v>12.77693213109234</v>
       </c>
       <c r="L17">
-        <v>12.67522698358858</v>
+        <v>9.446886567166318</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.64583598843642</v>
+        <v>12.26002933814943</v>
       </c>
       <c r="O17">
-        <v>25.23418139176282</v>
+        <v>15.88695996105441</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.02610947949793</v>
+        <v>16.45395930669167</v>
       </c>
       <c r="C18">
-        <v>8.447827246115983</v>
+        <v>6.167230077315332</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.4541396453265</v>
+        <v>10.88605849814324</v>
       </c>
       <c r="F18">
-        <v>38.72587122118495</v>
+        <v>28.98284994450714</v>
       </c>
       <c r="G18">
-        <v>3.66019253498904</v>
+        <v>2.093587901764541</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.40084313534886</v>
+        <v>15.4772372323136</v>
       </c>
       <c r="J18">
-        <v>8.148822648843243</v>
+        <v>5.544707001913158</v>
       </c>
       <c r="K18">
-        <v>10.39215149584521</v>
+        <v>12.63062225756092</v>
       </c>
       <c r="L18">
-        <v>12.66716538821087</v>
+        <v>9.377834828538111</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.65915982415721</v>
+        <v>12.30757513450386</v>
       </c>
       <c r="O18">
-        <v>25.25037008726189</v>
+        <v>15.88658921836125</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.00560011587873</v>
+        <v>16.38244221356875</v>
       </c>
       <c r="C19">
-        <v>8.44706354250981</v>
+        <v>6.163534507555591</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.45256395618767</v>
+        <v>10.86388784019525</v>
       </c>
       <c r="F19">
-        <v>38.72392681035118</v>
+        <v>28.92644457894153</v>
       </c>
       <c r="G19">
-        <v>3.660318290357187</v>
+        <v>2.09394372487772</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.40715213152742</v>
+        <v>15.48426408403415</v>
       </c>
       <c r="J19">
-        <v>8.148236595803066</v>
+        <v>5.542349863101943</v>
       </c>
       <c r="K19">
-        <v>10.37828560612768</v>
+        <v>12.58071607234878</v>
       </c>
       <c r="L19">
-        <v>12.66446482628575</v>
+        <v>9.354406854248595</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.66369866566161</v>
+        <v>12.32371033562132</v>
       </c>
       <c r="O19">
-        <v>25.25592784669434</v>
+        <v>15.88671184348739</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.09778759196813</v>
+        <v>16.70205014869391</v>
       </c>
       <c r="C20">
-        <v>8.450501991050539</v>
+        <v>6.180176562534974</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.45980527626272</v>
+        <v>10.96365010395397</v>
       </c>
       <c r="F20">
-        <v>38.7332300096428</v>
+        <v>29.18099451311217</v>
       </c>
       <c r="G20">
-        <v>3.659755863955777</v>
+        <v>2.092347264655164</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.37903784115232</v>
+        <v>15.45350063853667</v>
       </c>
       <c r="J20">
-        <v>8.15087274114509</v>
+        <v>5.55295492940385</v>
       </c>
       <c r="K20">
-        <v>10.4406241417427</v>
+        <v>12.80383599238307</v>
       </c>
       <c r="L20">
-        <v>12.67673272124602</v>
+        <v>9.459643108078089</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.64338315716749</v>
+        <v>12.25124710124138</v>
       </c>
       <c r="O20">
-        <v>25.23122159446389</v>
+        <v>15.88714733976591</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.40537405384062</v>
+        <v>17.73712828181393</v>
       </c>
       <c r="C21">
-        <v>8.462082776935508</v>
+        <v>6.236304649548176</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.48675475127215</v>
+        <v>11.29843531087489</v>
       </c>
       <c r="F21">
-        <v>38.77414277237904</v>
+        <v>30.04831908132899</v>
       </c>
       <c r="G21">
-        <v>3.657927049989173</v>
+        <v>2.087064836366253</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.28942499834247</v>
+        <v>15.36566384764077</v>
       </c>
       <c r="J21">
-        <v>8.159708782534207</v>
+        <v>5.588541324895207</v>
       </c>
       <c r="K21">
-        <v>10.64885122533039</v>
+        <v>13.52792743213881</v>
       </c>
       <c r="L21">
-        <v>12.71994299835869</v>
+        <v>9.809592934643906</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.57704250518993</v>
+        <v>12.0102580058271</v>
       </c>
       <c r="O21">
-        <v>25.15354153006481</v>
+        <v>15.90641321674553</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.60446734704884</v>
+        <v>18.38498214294737</v>
       </c>
       <c r="C22">
-        <v>8.469670421696913</v>
+        <v>6.273160522337492</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.50630143605782</v>
+        <v>11.51663824807522</v>
       </c>
       <c r="F22">
-        <v>38.80804490951603</v>
+        <v>30.6235560073856</v>
       </c>
       <c r="G22">
-        <v>3.656776986540283</v>
+        <v>2.083670359284156</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.2344726180466</v>
+        <v>15.32045677530229</v>
       </c>
       <c r="J22">
-        <v>8.165467015955254</v>
+        <v>5.611759850273567</v>
       </c>
       <c r="K22">
-        <v>10.78381550165625</v>
+        <v>13.9821875342561</v>
       </c>
       <c r="L22">
-        <v>12.74964071423921</v>
+        <v>10.03530213021025</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.53510810678748</v>
+        <v>11.85448619914138</v>
       </c>
       <c r="O22">
-        <v>25.10675072195219</v>
+        <v>15.9329101861809</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.49840493454887</v>
+        <v>18.04181307092007</v>
       </c>
       <c r="C23">
-        <v>8.465619148903091</v>
+        <v>6.253473032023908</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.49569332238624</v>
+        <v>11.40025230183135</v>
       </c>
       <c r="F23">
-        <v>38.78929754567675</v>
+        <v>30.315811088935</v>
       </c>
       <c r="G23">
-        <v>3.6573866758656</v>
+        <v>2.085476944376347</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.26347085297903</v>
+        <v>15.34342714387033</v>
       </c>
       <c r="J23">
-        <v>8.162395321333719</v>
+        <v>5.599371636737053</v>
       </c>
       <c r="K23">
-        <v>10.71189881190094</v>
+        <v>13.74147100741491</v>
       </c>
       <c r="L23">
-        <v>12.73365893252299</v>
+        <v>9.915129550168588</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.55735942446994</v>
+        <v>11.93747416381465</v>
       </c>
       <c r="O23">
-        <v>25.13135956521496</v>
+        <v>15.91745491493325</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.09273232844489</v>
+        <v>16.68464527888585</v>
       </c>
       <c r="C24">
-        <v>8.450313057246426</v>
+        <v>6.179261891411485</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.45939771622733</v>
+        <v>10.95817235462153</v>
       </c>
       <c r="F24">
-        <v>38.73268272195804</v>
+        <v>29.16696883464536</v>
       </c>
       <c r="G24">
-        <v>3.659786520279064</v>
+        <v>2.09243462119994</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.38056351293505</v>
+        <v>15.4551331843984</v>
       </c>
       <c r="J24">
-        <v>8.150728053429676</v>
+        <v>5.552372705681391</v>
       </c>
       <c r="K24">
-        <v>10.43720484861635</v>
+        <v>12.79167963201185</v>
       </c>
       <c r="L24">
-        <v>12.67605146612194</v>
+        <v>9.453876878591744</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.64449156321647</v>
+        <v>12.25521682307575</v>
       </c>
       <c r="O24">
-        <v>25.23255830785793</v>
+        <v>15.88705806932355</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.64902343010496</v>
+        <v>15.09613375315353</v>
       </c>
       <c r="C25">
-        <v>8.433897026669229</v>
+        <v>6.099869816443915</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.42866721642046</v>
+        <v>10.48074678345104</v>
       </c>
       <c r="F25">
-        <v>38.70256848981511</v>
+        <v>27.96779224847334</v>
       </c>
       <c r="G25">
-        <v>3.662570317001947</v>
+        <v>2.100206081149088</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.52237380789224</v>
+        <v>15.62399250134845</v>
       </c>
       <c r="J25">
-        <v>8.138077647342479</v>
+        <v>5.501543985722413</v>
       </c>
       <c r="K25">
-        <v>10.13748016234295</v>
+        <v>11.6852829302259</v>
       </c>
       <c r="L25">
-        <v>12.62034200357972</v>
+        <v>8.94547798739347</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.7446232404371</v>
+        <v>12.60612621350664</v>
       </c>
       <c r="O25">
-        <v>25.3587594109528</v>
+        <v>15.90985083437596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.85324633458316</v>
+        <v>19.20905386411612</v>
       </c>
       <c r="C2">
-        <v>6.041890661568456</v>
+        <v>14.95673374308741</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.13108415912828</v>
+        <v>29.49053711421492</v>
       </c>
       <c r="F2">
-        <v>27.12370114737034</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.106177010075791</v>
+        <v>18.40207551193686</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.33017597200912</v>
       </c>
       <c r="I2">
-        <v>15.7857473772367</v>
+        <v>3.524389263410578</v>
       </c>
       <c r="J2">
-        <v>5.464034407713954</v>
+        <v>7.465088943515948</v>
       </c>
       <c r="K2">
-        <v>10.79988836695082</v>
+        <v>10.51521051422569</v>
       </c>
       <c r="L2">
-        <v>8.564346810139941</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.87236248638829</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.96990092341724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.16900058285698</v>
+      </c>
+      <c r="Q2">
+        <v>11.88154590430732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.99871215330419</v>
+        <v>17.98252010126207</v>
       </c>
       <c r="C3">
-        <v>6.002862406271683</v>
+        <v>14.16131986766622</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.896594770589095</v>
+        <v>27.66394846026791</v>
       </c>
       <c r="F3">
-        <v>26.57816383985405</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.110387961800782</v>
+        <v>17.67409929533595</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.108792459590924</v>
       </c>
       <c r="I3">
-        <v>15.91676192023102</v>
+        <v>3.400838972822867</v>
       </c>
       <c r="J3">
-        <v>5.438575741561431</v>
+        <v>7.444969075700218</v>
       </c>
       <c r="K3">
-        <v>10.15577063601015</v>
+        <v>10.65873674776099</v>
       </c>
       <c r="L3">
-        <v>8.303339642450073</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.05808926832958</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.03534214551786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.12712595672596</v>
+      </c>
+      <c r="Q3">
+        <v>11.70375285863561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.44759167314916</v>
+        <v>17.18190074687888</v>
       </c>
       <c r="C4">
-        <v>5.979021652497214</v>
+        <v>13.65227835098824</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.754310102843927</v>
+        <v>26.48051478805527</v>
       </c>
       <c r="F4">
-        <v>26.2570076391895</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.113057443561892</v>
+        <v>17.22190424024213</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.967980117936141</v>
       </c>
       <c r="I4">
-        <v>16.00714930454695</v>
+        <v>3.322887461725835</v>
       </c>
       <c r="J4">
-        <v>5.422930195985979</v>
+        <v>7.435243782698409</v>
       </c>
       <c r="K4">
-        <v>9.738649342156076</v>
+        <v>10.75087888451767</v>
       </c>
       <c r="L4">
-        <v>8.142324861581995</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.17486004200612</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.08699805031604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.10422657449481</v>
+      </c>
+      <c r="Q4">
+        <v>11.59868259962184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21647376268707</v>
+        <v>16.83862766790084</v>
       </c>
       <c r="C5">
-        <v>5.96933646256689</v>
+        <v>13.44844900552916</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.696826723734778</v>
+        <v>25.98253101402523</v>
       </c>
       <c r="F5">
-        <v>26.12970970001035</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.114166783153437</v>
+        <v>17.02390317391216</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.909227370178498</v>
       </c>
       <c r="I5">
-        <v>16.04639718752272</v>
+        <v>3.290831757963538</v>
       </c>
       <c r="J5">
-        <v>5.416551858244514</v>
+        <v>7.430015829342889</v>
       </c>
       <c r="K5">
-        <v>9.56325977524039</v>
+        <v>10.78569493480171</v>
       </c>
       <c r="L5">
-        <v>8.076614987880227</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.22314934005392</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.11082714702491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.09720059863821</v>
+      </c>
+      <c r="Q5">
+        <v>11.55185601173319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17770630466826</v>
+        <v>16.77471498770979</v>
       </c>
       <c r="C6">
-        <v>5.967730043960636</v>
+        <v>13.42491863983171</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.687313927300162</v>
+        <v>25.89864229834883</v>
       </c>
       <c r="F6">
-        <v>26.10879078278728</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.114352298268668</v>
+        <v>16.97547459985261</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.899243470008757</v>
       </c>
       <c r="I6">
-        <v>16.05305764457527</v>
+        <v>3.285945431946232</v>
       </c>
       <c r="J6">
-        <v>5.415492603318935</v>
+        <v>7.426855979485227</v>
       </c>
       <c r="K6">
-        <v>9.533810893406795</v>
+        <v>10.78701092194053</v>
       </c>
       <c r="L6">
-        <v>8.065701053536939</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.23121075756182</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.11494871730961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.09805095185051</v>
+      </c>
+      <c r="Q6">
+        <v>11.53797793565042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.44450100783025</v>
+        <v>17.16080460010996</v>
       </c>
       <c r="C7">
-        <v>5.978890913595744</v>
+        <v>13.67802766039522</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.753532745194931</v>
+        <v>26.47315934749705</v>
       </c>
       <c r="F7">
-        <v>26.25527624622427</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.113072316919185</v>
+        <v>17.17748353531823</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.966784436785158</v>
       </c>
       <c r="I7">
-        <v>16.00766895069462</v>
+        <v>3.323486965077263</v>
       </c>
       <c r="J7">
-        <v>5.422844185168007</v>
+        <v>7.428819407228016</v>
       </c>
       <c r="K7">
-        <v>9.736305830239662</v>
+        <v>10.73896163351635</v>
       </c>
       <c r="L7">
-        <v>8.141438930604025</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.17550841499901</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.08730830529029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.10958430013476</v>
+      </c>
+      <c r="Q7">
+        <v>11.58129272421698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56414854502893</v>
+        <v>18.77579645555412</v>
       </c>
       <c r="C8">
-        <v>6.028407717447201</v>
+        <v>14.72226679817066</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.04992443054456</v>
+        <v>28.87275577491125</v>
       </c>
       <c r="F8">
-        <v>26.93279988992949</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.107611768197792</v>
+        <v>18.09967853567851</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.25433732216006</v>
       </c>
       <c r="I8">
-        <v>15.8288041998155</v>
+        <v>3.483326347614776</v>
       </c>
       <c r="J8">
-        <v>5.455259629602695</v>
+        <v>7.449251517468758</v>
       </c>
       <c r="K8">
-        <v>10.58230005434091</v>
+        <v>10.54734029459085</v>
       </c>
       <c r="L8">
-        <v>8.474563435665667</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.9358440307467</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.99001874028485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.1614443816138</v>
+      </c>
+      <c r="Q8">
+        <v>11.79765200137212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.6480491870994</v>
+        <v>21.59266545688112</v>
       </c>
       <c r="C9">
-        <v>6.12653400462705</v>
+        <v>16.5551532021646</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.64144563848145</v>
+        <v>33.08724011510662</v>
       </c>
       <c r="F9">
-        <v>28.36600464915459</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.097550864787519</v>
+        <v>19.92691636488184</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.781010280505527</v>
       </c>
       <c r="I9">
-        <v>15.5610280803306</v>
+        <v>3.779493370542548</v>
       </c>
       <c r="J9">
-        <v>5.518680860643219</v>
+        <v>7.522374435044196</v>
       </c>
       <c r="K9">
-        <v>12.06895659172437</v>
+        <v>10.22770622327586</v>
       </c>
       <c r="L9">
-        <v>9.117975038870171</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.48675423362655</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.89515001423818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.27571974064057</v>
+      </c>
+      <c r="Q9">
+        <v>12.28353792285765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.06272280306749</v>
+        <v>23.38300629560946</v>
       </c>
       <c r="C10">
-        <v>6.199348069430481</v>
+        <v>17.74424625257585</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.07831044762895</v>
+        <v>35.0066402807444</v>
       </c>
       <c r="F10">
-        <v>29.47584149945434</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.090526134019819</v>
+        <v>21.0036290404041</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.109442663824519</v>
       </c>
       <c r="I10">
-        <v>15.42080316197693</v>
+        <v>3.982344708553082</v>
       </c>
       <c r="J10">
-        <v>5.565141209446015</v>
+        <v>7.554264361952173</v>
       </c>
       <c r="K10">
-        <v>13.05589470317802</v>
+        <v>9.973897142600315</v>
       </c>
       <c r="L10">
-        <v>9.580032057001702</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.16837149115899</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.89072071265946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.39981732904698</v>
+      </c>
+      <c r="Q10">
+        <v>12.56445509495059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.6717307615136</v>
+        <v>23.75146947288127</v>
       </c>
       <c r="C11">
-        <v>6.232657864009597</v>
+        <v>17.76951959842418</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.27677060227577</v>
+        <v>28.37201943022455</v>
       </c>
       <c r="F11">
-        <v>29.99161638811319</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.087403696160124</v>
+        <v>19.65907572668557</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.455591665544619</v>
       </c>
       <c r="I11">
-        <v>15.37065778970828</v>
+        <v>4.02434839250964</v>
       </c>
       <c r="J11">
-        <v>5.586237547041891</v>
+        <v>7.272879508348883</v>
       </c>
       <c r="K11">
-        <v>13.4821150595533</v>
+        <v>9.537495274222701</v>
       </c>
       <c r="L11">
-        <v>9.78708585009039</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.02577051923202</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.90436757499729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.67198372766944</v>
+      </c>
+      <c r="Q11">
+        <v>11.91268359770319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.89743294532148</v>
+        <v>23.72020775804875</v>
       </c>
       <c r="C12">
-        <v>6.245300956092299</v>
+        <v>17.51821498275314</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.35182456056663</v>
+        <v>22.40840917555363</v>
       </c>
       <c r="F12">
-        <v>30.18837711614767</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.086231276132311</v>
+        <v>18.33232969914248</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.266681782529697</v>
       </c>
       <c r="I12">
-        <v>15.35375153305804</v>
+        <v>4.020705196205817</v>
       </c>
       <c r="J12">
-        <v>5.5942196272917</v>
+        <v>7.034459338261276</v>
       </c>
       <c r="K12">
-        <v>13.64025833517205</v>
+        <v>9.25062728556696</v>
       </c>
       <c r="L12">
-        <v>9.864981234373955</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.97206911860924</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.91191113712126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.87177447876895</v>
+      </c>
+      <c r="Q12">
+        <v>11.31768190002318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.84904176730647</v>
+        <v>23.36056971020476</v>
       </c>
       <c r="C13">
-        <v>6.242576685726065</v>
+        <v>17.06852639010537</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.33566562493153</v>
+        <v>16.48993307705755</v>
       </c>
       <c r="F13">
-        <v>30.1459386027957</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.086483342837056</v>
+        <v>16.84942471127414</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.297685877478945</v>
       </c>
       <c r="I13">
-        <v>15.35729799011048</v>
+        <v>3.984108218104358</v>
       </c>
       <c r="J13">
-        <v>5.592500856355149</v>
+        <v>6.804912086043132</v>
       </c>
       <c r="K13">
-        <v>13.60634394956815</v>
+        <v>9.04516381723</v>
       </c>
       <c r="L13">
-        <v>9.848228689036093</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.98362177302369</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>15.91017885749141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.03346951687705</v>
+      </c>
+      <c r="Q13">
+        <v>10.7005914668724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.69039764694676</v>
+        <v>22.95198940259468</v>
       </c>
       <c r="C14">
-        <v>6.233697412953767</v>
+        <v>16.66723229085598</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.28294763497991</v>
+        <v>12.43280717950055</v>
       </c>
       <c r="F14">
-        <v>30.00777565249956</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.087307043652877</v>
+        <v>15.71518248889259</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.10481394362492</v>
       </c>
       <c r="I14">
-        <v>15.36922445082394</v>
+        <v>3.944875860645657</v>
       </c>
       <c r="J14">
-        <v>5.586894376992959</v>
+        <v>6.647731323003164</v>
       </c>
       <c r="K14">
-        <v>13.49519078626555</v>
+        <v>8.939935823574043</v>
       </c>
       <c r="L14">
-        <v>9.793504916186645</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.02134662409012</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>15.90493986376403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.13094601077585</v>
+      </c>
+      <c r="Q14">
+        <v>10.25453166112811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.59258485291364</v>
+        <v>22.77508778228617</v>
       </c>
       <c r="C15">
-        <v>6.228262516045901</v>
+        <v>16.53367159490838</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.25064182618928</v>
+        <v>11.46517588827455</v>
       </c>
       <c r="F15">
-        <v>29.923331990716</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>2.08781286728398</v>
+        <v>15.39151084245092</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.291495254044682</v>
       </c>
       <c r="I15">
-        <v>15.37680465632506</v>
+        <v>3.928443081875211</v>
       </c>
       <c r="J15">
-        <v>5.5834593488665</v>
+        <v>6.610139054631041</v>
       </c>
       <c r="K15">
-        <v>13.42668256813631</v>
+        <v>8.92795343166688</v>
       </c>
       <c r="L15">
-        <v>9.759916774487463</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.04449236646416</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>15.90204390662502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.14819522004685</v>
+      </c>
+      <c r="Q15">
+        <v>10.13736234926587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.02223203533273</v>
+        <v>22.08298466886385</v>
       </c>
       <c r="C16">
-        <v>6.197175156469158</v>
+        <v>16.12208369514662</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.06532993619036</v>
+        <v>11.39750130563471</v>
       </c>
       <c r="F16">
-        <v>29.442343393344</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.090731619193323</v>
+        <v>15.12452209515143</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.023055732142804</v>
       </c>
       <c r="I16">
-        <v>15.42436502863659</v>
+        <v>3.851359508409299</v>
       </c>
       <c r="J16">
-        <v>5.563761643400009</v>
+        <v>6.639507610489025</v>
       </c>
       <c r="K16">
-        <v>13.02758357717135</v>
+        <v>9.077663845003588</v>
       </c>
       <c r="L16">
-        <v>9.566432139275232</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.1777338268747</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>15.89015456836131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.05631174732321</v>
+      </c>
+      <c r="Q16">
+        <v>10.12167364375328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.66352924948828</v>
+        <v>21.76751014363134</v>
       </c>
       <c r="C17">
-        <v>6.17815348648284</v>
+        <v>16.02333349548809</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.95153352229324</v>
+        <v>13.52753727557289</v>
       </c>
       <c r="F17">
-        <v>29.14997772921333</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.092540539600109</v>
+        <v>15.54645030065485</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.339218986577159</v>
       </c>
       <c r="I17">
-        <v>15.45712050097866</v>
+        <v>3.812596441490661</v>
       </c>
       <c r="J17">
-        <v>5.55166706258729</v>
+        <v>6.745329063972429</v>
       </c>
       <c r="K17">
-        <v>12.77693213109234</v>
+        <v>9.245067786018964</v>
       </c>
       <c r="L17">
-        <v>9.446886567166318</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.26002933814943</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.88695996105441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.93530706880434</v>
+      </c>
+      <c r="Q17">
+        <v>10.34898139399795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.45395930669167</v>
+        <v>21.76480368056307</v>
       </c>
       <c r="C18">
-        <v>6.167230077315332</v>
+        <v>16.1735241544249</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.88605849814324</v>
+        <v>18.09261385476476</v>
       </c>
       <c r="F18">
-        <v>28.98284994450714</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.093587901764541</v>
+        <v>16.63302511914442</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.308818511544134</v>
       </c>
       <c r="I18">
-        <v>15.4772372323136</v>
+        <v>3.803061814683412</v>
       </c>
       <c r="J18">
-        <v>5.544707001913158</v>
+        <v>6.932821622863572</v>
       </c>
       <c r="K18">
-        <v>12.63062225756092</v>
+        <v>9.460668051082386</v>
       </c>
       <c r="L18">
-        <v>9.377834828538111</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.30757513450386</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.88658921836125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.77144052904443</v>
+      </c>
+      <c r="Q18">
+        <v>10.82121015408168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.38244221356875</v>
+        <v>21.9924614877894</v>
       </c>
       <c r="C19">
-        <v>6.163534507555591</v>
+        <v>16.56295623932575</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.86388784019525</v>
+        <v>24.3620370182936</v>
       </c>
       <c r="F19">
-        <v>28.92644457894153</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.09394372487772</v>
+        <v>18.09198773668174</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.332667503613815</v>
       </c>
       <c r="I19">
-        <v>15.48426408403415</v>
+        <v>3.827121629771104</v>
       </c>
       <c r="J19">
-        <v>5.542349863101943</v>
+        <v>7.163111373319565</v>
       </c>
       <c r="K19">
-        <v>12.58071607234878</v>
+        <v>9.693329266844367</v>
       </c>
       <c r="L19">
-        <v>9.354406854248595</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.32371033562132</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.88671184348739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.60011161844986</v>
+      </c>
+      <c r="Q19">
+        <v>11.42904280775642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.70205014869391</v>
+        <v>22.88586592918083</v>
       </c>
       <c r="C20">
-        <v>6.180176562534974</v>
+        <v>17.50822291816069</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.96365010395397</v>
+        <v>34.47309157004639</v>
       </c>
       <c r="F20">
-        <v>29.18099451311217</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.092347264655164</v>
+        <v>20.6050802080745</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.021003828147239</v>
       </c>
       <c r="I20">
-        <v>15.45350063853667</v>
+        <v>3.934835782229939</v>
       </c>
       <c r="J20">
-        <v>5.55295492940385</v>
+        <v>7.524304502025251</v>
       </c>
       <c r="K20">
-        <v>12.80383599238307</v>
+        <v>9.998034198602321</v>
       </c>
       <c r="L20">
-        <v>9.459643108078089</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.25124710124138</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.88714733976591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.3858700176701</v>
+      </c>
+      <c r="Q20">
+        <v>12.43731924452944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.73712828181393</v>
+        <v>24.2682958769096</v>
       </c>
       <c r="C21">
-        <v>6.236304649548176</v>
+        <v>18.4641973728147</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.29843531087489</v>
+        <v>37.21958369281689</v>
       </c>
       <c r="F21">
-        <v>30.04831908132899</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.087064836366253</v>
+        <v>21.76433093628684</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.32420222893416</v>
       </c>
       <c r="I21">
-        <v>15.36566384764077</v>
+        <v>4.096794891774208</v>
       </c>
       <c r="J21">
-        <v>5.588541324895207</v>
+        <v>7.609623374892043</v>
       </c>
       <c r="K21">
-        <v>13.52792743213881</v>
+        <v>9.875587621541461</v>
       </c>
       <c r="L21">
-        <v>9.809592934643906</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.0102580058271</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.90641321674553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.44721037691304</v>
+      </c>
+      <c r="Q21">
+        <v>12.80644423427272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38498214294737</v>
+        <v>25.12283017872653</v>
       </c>
       <c r="C22">
-        <v>6.273160522337492</v>
+        <v>19.00925114394781</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.51663824807522</v>
+        <v>38.50728588072541</v>
       </c>
       <c r="F22">
-        <v>30.6235560073856</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.083670359284156</v>
+        <v>22.44729472414657</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.499907073670103</v>
       </c>
       <c r="I22">
-        <v>15.32045677530229</v>
+        <v>4.195688473774779</v>
       </c>
       <c r="J22">
-        <v>5.611759850273567</v>
+        <v>7.659235207169132</v>
       </c>
       <c r="K22">
-        <v>13.9821875342561</v>
+        <v>9.799412468375925</v>
       </c>
       <c r="L22">
-        <v>10.03530213021025</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.85448619914138</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.9329101861809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.4937366803106</v>
+      </c>
+      <c r="Q22">
+        <v>13.02528270601374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.04181307092007</v>
+        <v>24.68466466309653</v>
       </c>
       <c r="C23">
-        <v>6.253473032023908</v>
+        <v>18.69438171633716</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.40025230183135</v>
+        <v>37.82551489344601</v>
       </c>
       <c r="F23">
-        <v>30.315811088935</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.085476944376347</v>
+        <v>22.12261711247767</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.406826670972656</v>
       </c>
       <c r="I23">
-        <v>15.34342714387033</v>
+        <v>4.140839449017008</v>
       </c>
       <c r="J23">
-        <v>5.599371636737053</v>
+        <v>7.639635000860349</v>
       </c>
       <c r="K23">
-        <v>13.74147100741491</v>
+        <v>9.854690938560548</v>
       </c>
       <c r="L23">
-        <v>9.915129550168588</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.93747416381465</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.91745491493325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.46147219699772</v>
+      </c>
+      <c r="Q23">
+        <v>12.92586052400516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.68464527888585</v>
+        <v>22.92159863129911</v>
       </c>
       <c r="C24">
-        <v>6.179261891411485</v>
+        <v>17.50050236354709</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.95817235462153</v>
+        <v>35.1343173097205</v>
       </c>
       <c r="F24">
-        <v>29.16696883464536</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.09243462119994</v>
+        <v>20.81416177691901</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.046547991307272</v>
       </c>
       <c r="I24">
-        <v>15.4551331843984</v>
+        <v>3.933448805202634</v>
       </c>
       <c r="J24">
-        <v>5.552372705681391</v>
+        <v>7.560487827470549</v>
       </c>
       <c r="K24">
-        <v>12.79167963201185</v>
+        <v>10.05141218702799</v>
       </c>
       <c r="L24">
-        <v>9.453876878591744</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.25521682307575</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.88705806932355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.35615341974911</v>
+      </c>
+      <c r="Q24">
+        <v>12.52913087127356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.09613375315353</v>
+        <v>20.84585324948889</v>
       </c>
       <c r="C25">
-        <v>6.099869816443915</v>
+        <v>16.12242016296673</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.48074678345104</v>
+        <v>31.99881820338415</v>
       </c>
       <c r="F25">
-        <v>27.96779224847334</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.100206081149088</v>
+        <v>19.37238653811479</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.641822962742572</v>
       </c>
       <c r="I25">
-        <v>15.62399250134845</v>
+        <v>3.703456222500955</v>
       </c>
       <c r="J25">
-        <v>5.501543985722413</v>
+        <v>7.488869935323899</v>
       </c>
       <c r="K25">
-        <v>11.6852829302259</v>
+        <v>10.28752589044639</v>
       </c>
       <c r="L25">
-        <v>8.94547798739347</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.60612621350664</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.90985083437596</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.25289264519106</v>
+      </c>
+      <c r="Q25">
+        <v>12.11987529908289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.20905386411612</v>
+        <v>19.04663505932737</v>
       </c>
       <c r="C2">
-        <v>14.95673374308741</v>
+        <v>15.12111318471306</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.49053711421492</v>
+        <v>29.44193027859504</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>18.40207551193686</v>
+        <v>17.48841377605185</v>
       </c>
       <c r="H2">
-        <v>3.33017597200912</v>
+        <v>3.300687238346931</v>
       </c>
       <c r="I2">
-        <v>3.524389263410578</v>
+        <v>3.486060446520869</v>
       </c>
       <c r="J2">
-        <v>7.465088943515948</v>
+        <v>8.154628993042454</v>
       </c>
       <c r="K2">
-        <v>10.51521051422569</v>
+        <v>10.46187411456753</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.11613650537866</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.375040054358545</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.16900058285698</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.88154590430732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.24353655779399</v>
+      </c>
+      <c r="S2">
+        <v>11.81717713597777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.98252010126207</v>
+        <v>17.86151714424349</v>
       </c>
       <c r="C3">
-        <v>14.16131986766622</v>
+        <v>14.2508021421632</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.66394846026791</v>
+        <v>27.62347960403842</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>17.67409929533595</v>
+        <v>16.8037214244804</v>
       </c>
       <c r="H3">
-        <v>3.108792459590924</v>
+        <v>3.084787267076909</v>
       </c>
       <c r="I3">
-        <v>3.400838972822867</v>
+        <v>3.376281268168373</v>
       </c>
       <c r="J3">
-        <v>7.444969075700218</v>
+        <v>8.124568712523043</v>
       </c>
       <c r="K3">
-        <v>10.65873674776099</v>
+        <v>10.61394227004969</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.29736607316817</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.43593640852777</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.12712595672596</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.70375285863561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.17772899728477</v>
+      </c>
+      <c r="S3">
+        <v>11.67001062241282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.18190074687888</v>
+        <v>17.08780060007419</v>
       </c>
       <c r="C4">
-        <v>13.65227835098824</v>
+        <v>13.69316697465766</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.48051478805527</v>
+        <v>26.44525704635818</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>17.22190424024213</v>
+        <v>16.37839137815603</v>
       </c>
       <c r="H4">
-        <v>2.967980117936141</v>
+        <v>2.947416906856426</v>
       </c>
       <c r="I4">
-        <v>3.322887461725835</v>
+        <v>3.307126604793846</v>
       </c>
       <c r="J4">
-        <v>7.435243782698409</v>
+        <v>8.106851427440818</v>
       </c>
       <c r="K4">
-        <v>10.75087888451767</v>
+        <v>10.71006470946094</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.41356753032734</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.49757722102593</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.10422657449481</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.59868259962184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.1404011552035</v>
+      </c>
+      <c r="S4">
+        <v>11.58262783918117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.83862766790084</v>
+        <v>16.75587514079358</v>
       </c>
       <c r="C5">
-        <v>13.44844900552916</v>
+        <v>13.4690346646168</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.98253101402523</v>
+        <v>25.94946680503402</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>17.02390317391216</v>
+        <v>16.19102915080704</v>
       </c>
       <c r="H5">
-        <v>2.909227370178498</v>
+        <v>2.890091121416217</v>
       </c>
       <c r="I5">
-        <v>3.290831757963538</v>
+        <v>3.278979343013781</v>
       </c>
       <c r="J5">
-        <v>7.430015829342889</v>
+        <v>8.097984236853401</v>
       </c>
       <c r="K5">
-        <v>10.78569493480171</v>
+        <v>10.74630777418141</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.45858126399342</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.527023214887278</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.09720059863821</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.55185601173319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.12759242783785</v>
+      </c>
+      <c r="S5">
+        <v>11.54276345789913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.77471498770979</v>
+        <v>16.69387939174819</v>
       </c>
       <c r="C6">
-        <v>13.42491863983171</v>
+        <v>13.44225965839451</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.89864229834883</v>
+        <v>25.86595683018868</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>16.97547459985261</v>
+        <v>16.14396980334419</v>
       </c>
       <c r="H6">
-        <v>2.899243470008757</v>
+        <v>2.880350750825852</v>
       </c>
       <c r="I6">
-        <v>3.285945431946232</v>
+        <v>3.275072476007937</v>
       </c>
       <c r="J6">
-        <v>7.426855979485227</v>
+        <v>8.094287532397615</v>
       </c>
       <c r="K6">
-        <v>10.78701092194053</v>
+        <v>10.74797363917181</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.46177221072162</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.530333145758141</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.09805095185051</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.53797793565042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.12751573445611</v>
+      </c>
+      <c r="S6">
+        <v>11.53008335836855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.16080460010996</v>
+        <v>17.06080448667028</v>
       </c>
       <c r="C7">
-        <v>13.67802766039522</v>
+        <v>13.70921991750611</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.47315934749705</v>
+        <v>26.43732577789254</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>17.17748353531823</v>
+        <v>16.43296523785121</v>
       </c>
       <c r="H7">
-        <v>2.966784436785158</v>
+        <v>2.945884210021149</v>
       </c>
       <c r="I7">
-        <v>3.323486965077263</v>
+        <v>3.30809291852256</v>
       </c>
       <c r="J7">
-        <v>7.428819407228016</v>
+        <v>8.06148202747333</v>
       </c>
       <c r="K7">
-        <v>10.73896163351635</v>
+        <v>10.6944714962527</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.39861618069099</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.490070768536542</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.10958430013476</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.58129272421698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.14786314310477</v>
+      </c>
+      <c r="S7">
+        <v>11.55439630067827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.77579645555412</v>
+        <v>18.60872384303844</v>
       </c>
       <c r="C8">
-        <v>14.72226679817066</v>
+        <v>14.83120470438598</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.87275577491125</v>
+        <v>28.82505936763799</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>18.09967853567851</v>
+        <v>17.51605850372212</v>
       </c>
       <c r="H8">
-        <v>3.25433732216006</v>
+        <v>3.225598988837683</v>
       </c>
       <c r="I8">
-        <v>3.483326347614776</v>
+        <v>3.449099358199445</v>
       </c>
       <c r="J8">
-        <v>7.449251517468758</v>
+        <v>8.008547044422761</v>
       </c>
       <c r="K8">
-        <v>10.54734029459085</v>
+        <v>10.48448686417271</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.15237040697468</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.371067391578432</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.1614443816138</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.79765200137212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.23506064403387</v>
+      </c>
+      <c r="S8">
+        <v>11.70808782588368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.59266545688112</v>
+        <v>21.32773434001656</v>
       </c>
       <c r="C9">
-        <v>16.5551532021646</v>
+        <v>16.83092566040171</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.08724011510662</v>
+        <v>33.01990113230057</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>19.92691636488184</v>
+        <v>19.2924044462183</v>
       </c>
       <c r="H9">
-        <v>3.781010280505527</v>
+        <v>3.738758848990334</v>
       </c>
       <c r="I9">
-        <v>3.779493370542548</v>
+        <v>3.711551668216988</v>
       </c>
       <c r="J9">
-        <v>7.522374435044196</v>
+        <v>8.061285200323756</v>
       </c>
       <c r="K9">
-        <v>10.22770622327586</v>
+        <v>10.13146929137666</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.740867561509095</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.359061199186446</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.27571974064057</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.28353792285765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.4125119994325</v>
+      </c>
+      <c r="S9">
+        <v>12.10331494138633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.38300629560946</v>
+        <v>23.03001613854549</v>
       </c>
       <c r="C10">
-        <v>17.74424625257585</v>
+        <v>18.07650717833424</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>35.0066402807444</v>
+        <v>34.92298483017806</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>21.0036290404041</v>
+        <v>20.82063786590387</v>
       </c>
       <c r="H10">
-        <v>4.109442663824519</v>
+        <v>4.056284168125462</v>
       </c>
       <c r="I10">
-        <v>3.982344708553082</v>
+        <v>3.889988660842439</v>
       </c>
       <c r="J10">
-        <v>7.554264361952173</v>
+        <v>7.861794631908353</v>
       </c>
       <c r="K10">
-        <v>9.973897142600315</v>
+        <v>9.828894263376242</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.426595057947464</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.411808541057735</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.39981732904698</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.56445509495059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.59578323815952</v>
+      </c>
+      <c r="S10">
+        <v>12.26038580994936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.75146947288127</v>
+        <v>23.35008197434921</v>
       </c>
       <c r="C11">
-        <v>17.76951959842418</v>
+        <v>17.9858878798062</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.37201943022455</v>
+        <v>28.27684025415665</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>19.65907572668557</v>
+        <v>20.56070475523397</v>
       </c>
       <c r="H11">
-        <v>4.455591665544619</v>
+        <v>4.404693011854278</v>
       </c>
       <c r="I11">
-        <v>4.02434839250964</v>
+        <v>3.924895060165655</v>
       </c>
       <c r="J11">
-        <v>7.272879508348883</v>
+        <v>7.228929534920145</v>
       </c>
       <c r="K11">
-        <v>9.537495274222701</v>
+        <v>9.3985215878444</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.125366150633859</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.111557814134344</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.67198372766944</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.91268359770319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.90649436400341</v>
+      </c>
+      <c r="S11">
+        <v>11.5101851083693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.72020775804875</v>
+        <v>23.31202158821657</v>
       </c>
       <c r="C12">
-        <v>17.51821498275314</v>
+        <v>17.65286960594746</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.40840917555363</v>
+        <v>22.30341956711449</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>18.33232969914248</v>
+        <v>19.76790679624189</v>
       </c>
       <c r="H12">
-        <v>5.266681782529697</v>
+        <v>5.224762696504247</v>
       </c>
       <c r="I12">
-        <v>4.020705196205817</v>
+        <v>3.91967474926213</v>
       </c>
       <c r="J12">
-        <v>7.034459338261276</v>
+        <v>6.909752831402835</v>
       </c>
       <c r="K12">
-        <v>9.25062728556696</v>
+        <v>9.145128573356159</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.974721698425439</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.872610725433892</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.87177447876895</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.31768190002318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.11742954583242</v>
+      </c>
+      <c r="S12">
+        <v>10.89891513017972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.36056971020476</v>
+        <v>22.98871733314086</v>
       </c>
       <c r="C13">
-        <v>17.06852639010537</v>
+        <v>17.16005344405986</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.48993307705755</v>
+        <v>16.37286483324819</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>16.84942471127414</v>
+        <v>18.22375562987702</v>
       </c>
       <c r="H13">
-        <v>6.297685877478945</v>
+        <v>6.265461638013196</v>
       </c>
       <c r="I13">
-        <v>3.984108218104358</v>
+        <v>3.887722103126664</v>
       </c>
       <c r="J13">
-        <v>6.804912086043132</v>
+        <v>6.810955102569944</v>
       </c>
       <c r="K13">
-        <v>9.04516381723</v>
+        <v>8.998137399486318</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.902836912785176</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.666737892752037</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>13.03346951687705</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.7005914668724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.2619828053865</v>
+      </c>
+      <c r="S13">
+        <v>10.35126240057061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.95198940259468</v>
+        <v>22.6250318358684</v>
       </c>
       <c r="C14">
-        <v>16.66723229085598</v>
+        <v>16.74448965541675</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.43280717950055</v>
+        <v>12.30136169850063</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>15.71518248889259</v>
+        <v>16.78257774897503</v>
       </c>
       <c r="H14">
-        <v>7.10481394362492</v>
+        <v>7.078579894454982</v>
       </c>
       <c r="I14">
-        <v>3.944875860645657</v>
+        <v>3.854722010766067</v>
       </c>
       <c r="J14">
-        <v>6.647731323003164</v>
+        <v>6.818106586889981</v>
       </c>
       <c r="K14">
-        <v>8.939935823574043</v>
+        <v>8.939664316962338</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.88049989806122</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.541956988869924</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>13.13094601077585</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.25453166112811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.33443763678278</v>
+      </c>
+      <c r="S14">
+        <v>9.989379668775484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.77508778228617</v>
+        <v>22.46764279153233</v>
       </c>
       <c r="C15">
-        <v>16.53367159490838</v>
+        <v>16.61402725606679</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.46517588827455</v>
+        <v>11.33018951664624</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>15.39151084245092</v>
+        <v>16.27085885668118</v>
       </c>
       <c r="H15">
-        <v>7.291495254044682</v>
+        <v>7.266866345439421</v>
       </c>
       <c r="I15">
-        <v>3.928443081875211</v>
+        <v>3.84158951622017</v>
       </c>
       <c r="J15">
-        <v>6.610139054631041</v>
+        <v>6.852010153299568</v>
       </c>
       <c r="K15">
-        <v>8.92795343166688</v>
+        <v>8.941838837496256</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.885114337082371</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.517173104251888</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>13.14819522004685</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.13736234926587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.34005550949776</v>
+      </c>
+      <c r="S15">
+        <v>9.907527092843367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.08298466886385</v>
+        <v>21.84866300734302</v>
       </c>
       <c r="C16">
-        <v>16.12208369514662</v>
+        <v>16.25355465076464</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.39750130563471</v>
+        <v>11.27833025022645</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>15.12452209515143</v>
+        <v>15.074124328968</v>
       </c>
       <c r="H16">
-        <v>7.023055732142804</v>
+        <v>7.001440326757885</v>
       </c>
       <c r="I16">
-        <v>3.851359508409299</v>
+        <v>3.77780456346289</v>
       </c>
       <c r="J16">
-        <v>6.639507610489025</v>
+        <v>7.166269202281458</v>
       </c>
       <c r="K16">
-        <v>9.077663845003588</v>
+        <v>9.114617228890518</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.995894442959006</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.589947254192611</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>13.05631174732321</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.12167364375328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.20154583876261</v>
+      </c>
+      <c r="S16">
+        <v>10.01371056065489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.76751014363134</v>
+        <v>21.55792489283962</v>
       </c>
       <c r="C17">
-        <v>16.02333349548809</v>
+        <v>16.1907987916438</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.52753727557289</v>
+        <v>13.42770648872813</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>15.54645030065485</v>
+        <v>15.07862739532298</v>
       </c>
       <c r="H17">
-        <v>6.339218986577159</v>
+        <v>6.317107748526415</v>
       </c>
       <c r="I17">
-        <v>3.812596441490661</v>
+        <v>3.745542178762997</v>
       </c>
       <c r="J17">
-        <v>6.745329063972429</v>
+        <v>7.390403803511377</v>
       </c>
       <c r="K17">
-        <v>9.245067786018964</v>
+        <v>9.277001886560555</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.103103493674849</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.700026561587695</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.93530706880434</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.34898139399795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.06324025106425</v>
+      </c>
+      <c r="S17">
+        <v>10.27767434847585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.76480368056307</v>
+        <v>21.55015902028876</v>
       </c>
       <c r="C18">
-        <v>16.1735241544249</v>
+        <v>16.38485775039976</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.09261385476476</v>
+        <v>18.00950523668399</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>16.63302511914442</v>
+        <v>15.96198150760343</v>
       </c>
       <c r="H18">
-        <v>5.308818511544134</v>
+        <v>5.282386660705077</v>
       </c>
       <c r="I18">
-        <v>3.803061814683412</v>
+        <v>3.736725215273966</v>
       </c>
       <c r="J18">
-        <v>6.932821622863572</v>
+        <v>7.611466666040869</v>
       </c>
       <c r="K18">
-        <v>9.460668051082386</v>
+        <v>9.468033344820432</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.232354154333468</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.864382610563279</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.77144052904443</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.82121015408168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.89865672735529</v>
+      </c>
+      <c r="S18">
+        <v>10.74004931368466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.9924614877894</v>
+        <v>21.75329911604624</v>
       </c>
       <c r="C19">
-        <v>16.56295623932575</v>
+        <v>16.82860396629876</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.3620370182936</v>
+        <v>24.2873953369526</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>18.09198773668174</v>
+        <v>17.32509969539175</v>
       </c>
       <c r="H19">
-        <v>4.332667503613815</v>
+        <v>4.297626196651097</v>
       </c>
       <c r="I19">
-        <v>3.827121629771104</v>
+        <v>3.758783801140241</v>
       </c>
       <c r="J19">
-        <v>7.163111373319565</v>
+        <v>7.828142562185865</v>
       </c>
       <c r="K19">
-        <v>9.693329266844367</v>
+        <v>9.66325361688747</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.36559709074651</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.054088165933996</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.60011161844986</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.42904280775642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.73691066228342</v>
+      </c>
+      <c r="S19">
+        <v>11.31049959481513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.88586592918083</v>
+        <v>22.57251055386811</v>
       </c>
       <c r="C20">
-        <v>17.50822291816069</v>
+        <v>17.85489230561124</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>34.47309157004639</v>
+        <v>34.3954084700012</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>20.6050802080745</v>
+        <v>20.00713710192874</v>
       </c>
       <c r="H20">
-        <v>4.021003828147239</v>
+        <v>3.971785321544761</v>
       </c>
       <c r="I20">
-        <v>3.934835782229939</v>
+        <v>3.853244040401233</v>
       </c>
       <c r="J20">
-        <v>7.524304502025251</v>
+        <v>8.025446379892403</v>
       </c>
       <c r="K20">
-        <v>9.998034198602321</v>
+        <v>9.884581964273369</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.492384249654684</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.367802865341671</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.3858700176701</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.43731924452944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.55832101796102</v>
+      </c>
+      <c r="S20">
+        <v>12.2041827388915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.2682958769096</v>
+        <v>23.79795511196421</v>
       </c>
       <c r="C21">
-        <v>18.4641973728147</v>
+        <v>18.71824843356567</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37.21958369281689</v>
+        <v>37.12122753241034</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>21.76433093628684</v>
+        <v>23.02223181104424</v>
       </c>
       <c r="H21">
-        <v>4.32420222893416</v>
+        <v>4.260911025640129</v>
       </c>
       <c r="I21">
-        <v>4.096794891774208</v>
+        <v>3.988021398092697</v>
       </c>
       <c r="J21">
-        <v>7.609623374892043</v>
+        <v>7.289107296990085</v>
       </c>
       <c r="K21">
-        <v>9.875587621541461</v>
+        <v>9.633600671701545</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.253790472555904</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.414088435450171</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.44721037691304</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.80644423427272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.71259504873014</v>
+      </c>
+      <c r="S21">
+        <v>12.27302477901924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.12283017872653</v>
+        <v>24.55041359621465</v>
       </c>
       <c r="C22">
-        <v>19.00925114394781</v>
+        <v>19.19156798037701</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>38.50728588072541</v>
+        <v>38.39579115984148</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>22.44729472414657</v>
+        <v>24.98587690309124</v>
       </c>
       <c r="H22">
-        <v>4.499907073670103</v>
+        <v>4.42777267986905</v>
       </c>
       <c r="I22">
-        <v>4.195688473774779</v>
+        <v>4.068654066729768</v>
       </c>
       <c r="J22">
-        <v>7.659235207169132</v>
+        <v>6.83108648372987</v>
       </c>
       <c r="K22">
-        <v>9.799412468375925</v>
+        <v>9.464888499902949</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.102686063770573</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.452606499625046</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.4937366803106</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.02528270601374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.82358936783385</v>
+      </c>
+      <c r="S22">
+        <v>12.2838421871614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.68466466309653</v>
+        <v>24.17806102402013</v>
       </c>
       <c r="C23">
-        <v>18.69438171633716</v>
+        <v>18.93427870408432</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>37.82551489344601</v>
+        <v>37.72192120019321</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>22.12261711247767</v>
+        <v>23.77035132353258</v>
       </c>
       <c r="H23">
-        <v>4.406826670972656</v>
+        <v>4.339996341414035</v>
       </c>
       <c r="I23">
-        <v>4.140839449017008</v>
+        <v>4.023237291469648</v>
       </c>
       <c r="J23">
-        <v>7.639635000860349</v>
+        <v>7.147677836411524</v>
       </c>
       <c r="K23">
-        <v>9.854690938560548</v>
+        <v>9.578839755642523</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.195172248933774</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.457724440374943</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.46147219699772</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.92586052400516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.75014514000408</v>
+      </c>
+      <c r="S23">
+        <v>12.32214984167377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.92159863129911</v>
+        <v>22.60661314124227</v>
       </c>
       <c r="C24">
-        <v>17.50050236354709</v>
+        <v>17.85283873628902</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>35.1343173097205</v>
+        <v>35.05666458499246</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>20.81416177691901</v>
+        <v>20.19474437350269</v>
       </c>
       <c r="H24">
-        <v>4.046547991307272</v>
+        <v>3.99714694603574</v>
       </c>
       <c r="I24">
-        <v>3.933448805202634</v>
+        <v>3.849783349233935</v>
       </c>
       <c r="J24">
-        <v>7.560487827470549</v>
+        <v>8.064137571634781</v>
       </c>
       <c r="K24">
-        <v>10.05141218702799</v>
+        <v>9.931947495285092</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.524079298565811</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.412545649441816</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.35615341974911</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.52913087127356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.52848269898344</v>
+      </c>
+      <c r="S24">
+        <v>12.29333667854386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.84585324948889</v>
+        <v>20.61353719498368</v>
       </c>
       <c r="C25">
-        <v>16.12242016296673</v>
+        <v>16.36805825906885</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>31.99881820338415</v>
+        <v>31.93746412629153</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>19.37238653811479</v>
+        <v>18.62370046865588</v>
       </c>
       <c r="H25">
-        <v>3.641822962742572</v>
+        <v>3.60365805965607</v>
       </c>
       <c r="I25">
-        <v>3.703456222500955</v>
+        <v>3.64656113930794</v>
       </c>
       <c r="J25">
-        <v>7.488869935323899</v>
+        <v>8.089785005467842</v>
       </c>
       <c r="K25">
-        <v>10.28752589044639</v>
+        <v>10.20906275074056</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.837026477979434</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.326584889756591</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.25289264519106</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.11987529908289</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.36952056093634</v>
+      </c>
+      <c r="S25">
+        <v>11.9806136909862</v>
       </c>
     </row>
   </sheetData>
